--- a/public/templates/NHWA_Module_6.xlsx
+++ b/public/templates/NHWA_Module_6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979FA1CC-9D8B-4ACA-99A7-4F96B61E41B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DNn2ED2tvDz8R2HdUrc6XR6aLxi7PHt3jXYcZD0jxFrPsDBA7xDhVMdxOKshsbgCwgXdklO6j3XC0t5iHKIwCg==" workbookSaltValue="hoPvbRWBNZzUUX5QAUaMpQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902A928-CB9F-497F-B225-90E64452977C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ksm0+LFzc4jnkW+1JVHCeO3Ei6eT3HZ65UGm+4oDP6IVkbrauLqCBLPqr+yz1veNN0ytXiTLYVhbLtC6QIKq6g==" workbookSaltValue="LPqQ4mx+kcyI93B/7PscMw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,359 @@
     <sheet name="Characteristics" sheetId="1" r:id="rId1"/>
     <sheet name="Conditions" sheetId="2" r:id="rId2"/>
     <sheet name="Regulation" sheetId="6" r:id="rId3"/>
+    <sheet name="Validation" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Metadata" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_a0Tb0vzKk1m">Metadata!$C$133</definedName>
+    <definedName name="_aBpbcEgtzgw">Metadata!$C$53</definedName>
+    <definedName name="_ACalScnrl2I">Metadata!$C$214</definedName>
+    <definedName name="_AcYy9PESCS4">Metadata!$C$57</definedName>
+    <definedName name="_Adzexk8xbzD">Metadata!$C$349</definedName>
+    <definedName name="_AFIorEPU00q">Metadata!$C$135</definedName>
+    <definedName name="_AJBfDthkySs">Metadata!$C$124</definedName>
+    <definedName name="_AjeCGGb8H76">Metadata!$C$118</definedName>
+    <definedName name="_Ajnw1b8m6eL">Metadata!$C$227</definedName>
+    <definedName name="_ALBRKpJsddQ">Metadata!$C$58</definedName>
+    <definedName name="_aNIrqpwcKXv">Metadata!$C$328</definedName>
+    <definedName name="_apVWLKfARpb">Metadata!$C$190</definedName>
+    <definedName name="_AUStREIxT4s">Metadata!$C$188</definedName>
+    <definedName name="_av3fkpFxEXj">Metadata!$C$340</definedName>
+    <definedName name="_AYWCbVecRKQ">Metadata!$C$335</definedName>
+    <definedName name="_aZ7Bm5L90rn">Metadata!$C$278</definedName>
+    <definedName name="_AZdPnw0b1lm">Metadata!$C$93</definedName>
+    <definedName name="_B4iWc3gcDcn">Metadata!$C$237</definedName>
+    <definedName name="_B9p76UEP9T6">Metadata!$C$69</definedName>
+    <definedName name="_Bc3mYAhlY1a">Metadata!$C$194</definedName>
+    <definedName name="_bcy4159FETR">Metadata!$C$221</definedName>
+    <definedName name="_BGi4lPgaJ07">Metadata!$C$48</definedName>
+    <definedName name="_bGWaeVBrOcc">Metadata!$C$121</definedName>
+    <definedName name="_bhkJDAiqVKX">Metadata!$C$184</definedName>
+    <definedName name="_BlC8wOVHBlb">Metadata!$C$279</definedName>
+    <definedName name="_BLpPqpMtgQY">Metadata!$C$169</definedName>
+    <definedName name="_BmTVMvJHVBO">Metadata!$C$223</definedName>
+    <definedName name="_bnQX2QIuIY9">Metadata!$C$165</definedName>
+    <definedName name="_Bon3xyAAWKf">Metadata!$C$231</definedName>
+    <definedName name="_buSEeeViTo3">Metadata!$C$348</definedName>
+    <definedName name="_bvyjEfI0d2V">Metadata!$C$212</definedName>
+    <definedName name="_BVzmce6DVeS">Metadata!$C$178</definedName>
+    <definedName name="_c82mDnhUQly">Metadata!$C$112</definedName>
+    <definedName name="_C8MvR5CNwpG">Metadata!$C$33</definedName>
+    <definedName name="_cCgL3J7Lsgn">Metadata!$C$294</definedName>
+    <definedName name="_CCl7hAqlrmE">Metadata!$C$150</definedName>
+    <definedName name="_cfBaKMnsXd1">Metadata!$C$253</definedName>
+    <definedName name="_cJU4qStc9QT">Metadata!$C$314</definedName>
+    <definedName name="_COs48yLdDvg">Metadata!$C$245</definedName>
+    <definedName name="_cpmmPDsQ3uG">Metadata!$C$109</definedName>
+    <definedName name="_CpV0L0Y9i9h">Metadata!$C$75</definedName>
+    <definedName name="_cRWrIpjzvVl">Metadata!$C$182</definedName>
+    <definedName name="_cV7DhKFPk3R">Metadata!$C$28</definedName>
+    <definedName name="_CVlyw498LdE">Metadata!$C$43</definedName>
+    <definedName name="_cWrL45je7mw">Metadata!$C$94</definedName>
+    <definedName name="_cZ8823L0fLJ">Metadata!$C$234</definedName>
+    <definedName name="_D4JnxOsqwE4">Metadata!$C$215</definedName>
+    <definedName name="_d7hKlZbQARX">Metadata!$C$7</definedName>
+    <definedName name="_di91e0qZijs">Metadata!$C$38</definedName>
+    <definedName name="_diMX6HJrY20">Metadata!$C$10</definedName>
+    <definedName name="_DMyxTSpvKOp">Metadata!$C$47</definedName>
+    <definedName name="_dNLjKwsVjod">Metadata!$C$101</definedName>
+    <definedName name="_dpcvWc01CeN">Metadata!$C$114</definedName>
+    <definedName name="_dscgTvwyCw8">Metadata!$C$122</definedName>
+    <definedName name="_DVnpk4xiXGJ">Metadata!$C$302</definedName>
+    <definedName name="_DVyhvgkJrXg">Metadata!$C$21</definedName>
+    <definedName name="_DyaPQBiCIbE">Metadata!$C$44</definedName>
+    <definedName name="_DzAOqCf0ots">Metadata!$C$106</definedName>
+    <definedName name="_E9G2aQpCs1A">Metadata!$C$175</definedName>
+    <definedName name="_e9IoKRAkYLO">Metadata!$C$97</definedName>
+    <definedName name="_EB4aSZN0eQr">Metadata!$C$230</definedName>
+    <definedName name="_EDHO4qOyY88">Metadata!$C$149</definedName>
+    <definedName name="_EGLpIMSAWhx">Metadata!$C$170</definedName>
+    <definedName name="_ehNfKt5LpG9">Metadata!$C$200</definedName>
+    <definedName name="_ElwEWppmGgv">Metadata!$C$202</definedName>
+    <definedName name="_er7MPiN3tdH">Metadata!$C$303</definedName>
+    <definedName name="_EubjsxqlA4d">Metadata!$C$225</definedName>
+    <definedName name="_eVEK7djdWqV">Metadata!$C$320</definedName>
+    <definedName name="_eVp1pvRfPKS">Metadata!$C$341</definedName>
+    <definedName name="_eyvitcZL4ex">Metadata!$C$179</definedName>
+    <definedName name="_f4ZFD2aswys">Metadata!$C$91</definedName>
+    <definedName name="_false">Metadata!$C$351</definedName>
+    <definedName name="_FDUFnJmPb2t">Metadata!$C$6</definedName>
+    <definedName name="_fg8TSIHSGHX">Metadata!$C$172</definedName>
+    <definedName name="_fGOgbIqsxDn">Metadata!$C$61</definedName>
+    <definedName name="_fHaKXfcKthe">Metadata!$C$264</definedName>
+    <definedName name="_fHXW26zg2U6">Metadata!$C$198</definedName>
+    <definedName name="_Fi5lLVwe1Th">Metadata!$C$157</definedName>
+    <definedName name="_fIlPGTXBCUm">Metadata!$C$346</definedName>
+    <definedName name="_fkrzFaeuYDn">Metadata!$C$339</definedName>
+    <definedName name="_FNduj2N3e8s">Metadata!$C$286</definedName>
+    <definedName name="_fNWDIhx3ZQO">Metadata!$C$26</definedName>
+    <definedName name="_FOJUXD6f6lB">Metadata!$C$224</definedName>
+    <definedName name="_Fq9qs6Kn6wN">Metadata!$C$176</definedName>
+    <definedName name="_FUieyovDec8">Metadata!$C$297</definedName>
+    <definedName name="_FXC8HIEHwHI">Metadata!$C$23</definedName>
+    <definedName name="_fYeClLy8K2x">Metadata!$C$318</definedName>
+    <definedName name="_G037PAPU5dO">Metadata!$C$222</definedName>
+    <definedName name="_G3thRWUQAX9">Metadata!$C$160</definedName>
+    <definedName name="_g49fuSiB623">Metadata!$C$193</definedName>
+    <definedName name="_G8FCnT37gyb">Metadata!$C$256</definedName>
+    <definedName name="_G9o5ad4oJJX">Metadata!$C$187</definedName>
+    <definedName name="_Gan3VYicAWe">Metadata!$C$239</definedName>
+    <definedName name="_gb7vWtO7Wjp">Metadata!$C$347</definedName>
+    <definedName name="_gDinmRT6Pqb">Metadata!$C$25</definedName>
+    <definedName name="_GeY6o2BMvp1">Metadata!$C$27</definedName>
+    <definedName name="_gg9DH7dvdeD">Metadata!$C$181</definedName>
+    <definedName name="_gGSJZCN2L8C">Metadata!$C$5</definedName>
+    <definedName name="_gMz0MxjZcEt">Metadata!$C$218</definedName>
+    <definedName name="_Gnz4lqrVEMf">Metadata!$C$329</definedName>
+    <definedName name="_gPN4hQ7GROc">Metadata!$C$80</definedName>
+    <definedName name="_GPyOOoIby8R">Metadata!$C$277</definedName>
+    <definedName name="_GrU8zQv510v">Metadata!$C$323</definedName>
+    <definedName name="_Gvox4WmLiYC">Metadata!$C$332</definedName>
+    <definedName name="_GWQBgBHdbbp">Metadata!$C$206</definedName>
+    <definedName name="_gxi9jcBYyrL">Metadata!$C$213</definedName>
+    <definedName name="_hBzWHe6kuvu">Metadata!$C$37</definedName>
+    <definedName name="_HDN85xUGB65">Metadata!$C$310</definedName>
+    <definedName name="_HfVjCurKxh2">Metadata!$C$208</definedName>
+    <definedName name="_hG1CNbw8wSF">Metadata!$C$247</definedName>
+    <definedName name="_hgGOTFYZxMO">Metadata!$C$174</definedName>
+    <definedName name="_HizhPCC5Ps5">Metadata!$C$290</definedName>
+    <definedName name="_hmZE3mVAZFf">Metadata!$C$119</definedName>
+    <definedName name="_hpXoMVtJpT3">Metadata!$C$284</definedName>
+    <definedName name="_HwqfuL9pQz5">Metadata!$C$321</definedName>
+    <definedName name="_HX7fBSMCCbL">Metadata!$C$345</definedName>
+    <definedName name="_HYEuE8zV74t">Metadata!$C$282</definedName>
+    <definedName name="_I3NxIqG7bD4">Metadata!$C$250</definedName>
+    <definedName name="_i3v8r9XNls2">Metadata!$C$273</definedName>
+    <definedName name="_I5m9Dl43XO2">Metadata!$C$13</definedName>
+    <definedName name="_I5WRaMzhVsu">Metadata!$C$84</definedName>
+    <definedName name="_I93t0K7b1oN">Metadata!$C$52</definedName>
+    <definedName name="_IbGbsybdeou">Metadata!$C$269</definedName>
+    <definedName name="_ibGsqmiVkoU">Metadata!$C$207</definedName>
+    <definedName name="_IFAb1JUZ0Fz">Metadata!$C$308</definedName>
+    <definedName name="_iFaKKDtb7nf">Metadata!$C$258</definedName>
+    <definedName name="_Ii26DODuUbB">Metadata!$C$36</definedName>
+    <definedName name="_IjLnDADGraQ">Metadata!$C$305</definedName>
+    <definedName name="_iM5NIZBqAUL">Metadata!$C$17</definedName>
+    <definedName name="_iNT35p3jsEM">Metadata!$C$102</definedName>
+    <definedName name="_ipe4pT2TW7G">Metadata!$C$189</definedName>
+    <definedName name="_iS6Vzt6PPjr">Metadata!$C$30</definedName>
+    <definedName name="_iWRW6jXAzvP">Metadata!$C$51</definedName>
+    <definedName name="_IZSm5iPKkDg">Metadata!$C$235</definedName>
+    <definedName name="_IZy3ESdFnp5">Metadata!$C$180</definedName>
+    <definedName name="_jCtFxm8aADJ">Metadata!$C$268</definedName>
+    <definedName name="_JEHwU064LAj">Metadata!$C$216</definedName>
+    <definedName name="_jFOZHDZpjPL">Metadata!$C$90</definedName>
+    <definedName name="_JfxMvAwKsR7">Metadata!$C$59</definedName>
+    <definedName name="_JI5lagoUJR4">Metadata!$C$204</definedName>
+    <definedName name="_JIr15Xt3EQn">Metadata!$C$155</definedName>
+    <definedName name="_jkyBvNzcTLl">Metadata!$C$306</definedName>
+    <definedName name="_jMGr96nGwHN">Metadata!$C$246</definedName>
+    <definedName name="_JQ5qF3mRCMe">Metadata!$C$108</definedName>
+    <definedName name="_juBxu3AprlM">Metadata!$C$343</definedName>
+    <definedName name="_jVqoXv7rFns">Metadata!$C$196</definedName>
+    <definedName name="_JX7HJfPfbog">Metadata!$C$236</definedName>
+    <definedName name="_jXQq22U4Y2e">Metadata!$C$136</definedName>
+    <definedName name="_jZOt27rWre8">Metadata!$C$191</definedName>
+    <definedName name="_JzvGfLYkX17">Metadata!$C$42</definedName>
+    <definedName name="_K5u7PTVJDz9">Metadata!$C$83</definedName>
+    <definedName name="_KahDmiRilJb">Metadata!$C$73</definedName>
+    <definedName name="_KAUSOoBq5Ft">Metadata!$C$232</definedName>
+    <definedName name="_kHofJhihOKw">Metadata!$C$78</definedName>
+    <definedName name="_KKBsggVfCTv">Metadata!$C$70</definedName>
+    <definedName name="_KlsBVkjtkkV">Metadata!$C$19</definedName>
+    <definedName name="_KOUhvjWIy6V">Metadata!$C$334</definedName>
+    <definedName name="_kpFgAwwSjCZ">Metadata!$C$337</definedName>
+    <definedName name="_KqaTbKanCG3">Metadata!$C$251</definedName>
+    <definedName name="_KrU8C1YTdao">Metadata!$C$342</definedName>
+    <definedName name="_KwgjnBBpe5b">Metadata!$C$104</definedName>
+    <definedName name="_KyFesytPvpt">Metadata!$C$71</definedName>
+    <definedName name="_LAPR4Iu2NVS">Metadata!$C$154</definedName>
+    <definedName name="_lbMrRSBsXh3">Metadata!$C$141</definedName>
+    <definedName name="_LbWpsX1FJcC">Metadata!$C$96</definedName>
+    <definedName name="_lGN2n7pZ6Ua">Metadata!$C$132</definedName>
+    <definedName name="_LHbCtHlZr3Y">Metadata!$C$63</definedName>
+    <definedName name="_lKZR6UK0afN">Metadata!$C$95</definedName>
+    <definedName name="_lnvESj20mWZ">Metadata!$C$233</definedName>
+    <definedName name="_LTLHCOHyyWS">Metadata!$C$275</definedName>
+    <definedName name="_LUVRqQq2NLE">Metadata!$C$20</definedName>
+    <definedName name="_lVPoUAKCdmU">Metadata!$C$299</definedName>
+    <definedName name="_lvs1RCQOOp4">Metadata!$C$32</definedName>
+    <definedName name="_LYjT01KiTTw">Metadata!$C$16</definedName>
+    <definedName name="_M9HrCkIwaKy">Metadata!$C$324</definedName>
+    <definedName name="_Mb9IYOFZYCv">Metadata!$C$144</definedName>
+    <definedName name="_mDSuyD9lOM5">Metadata!$C$192</definedName>
+    <definedName name="_MfcVRlA41v6">Metadata!$C$66</definedName>
+    <definedName name="_mhWSEv79IJW">Metadata!$C$301</definedName>
+    <definedName name="_MJEntShoQVK">Metadata!$C$117</definedName>
+    <definedName name="_Mk7P920hkBa">Metadata!$C$156</definedName>
+    <definedName name="_mmJUi0PpvGi">Metadata!$C$220</definedName>
+    <definedName name="_mNa42CHbkO7">Metadata!$C$87</definedName>
+    <definedName name="_MPzyVWiSFF2">Metadata!$C$65</definedName>
+    <definedName name="_MSX8eTjkneO">Metadata!$C$35</definedName>
+    <definedName name="_myv7amOYTHn">Metadata!$C$130</definedName>
+    <definedName name="_N6VNhZ2PCG7">Metadata!$C$31</definedName>
+    <definedName name="_n8iofJiiX4T">Metadata!$C$111</definedName>
+    <definedName name="_N9i1v07Ro0E">Metadata!$C$272</definedName>
+    <definedName name="_ncopO2Sj2RB">Metadata!$C$72</definedName>
+    <definedName name="_ngUSWwX0Oby">Metadata!$C$163</definedName>
+    <definedName name="_NhuW760cOQG">Metadata!$C$146</definedName>
+    <definedName name="_NI5EQM6hHmc">Metadata!$C$9</definedName>
+    <definedName name="_Nlv8oKkoAwp">Metadata!$C$209</definedName>
+    <definedName name="_Nrnay4JA8Ga">Metadata!$C$105</definedName>
+    <definedName name="_NUkOvK4bnj2">Metadata!$C$185</definedName>
+    <definedName name="_O0hWoXlHhIS">Metadata!$C$249</definedName>
+    <definedName name="_O7BGyJhV2Tc">Metadata!$C$252</definedName>
+    <definedName name="_O8QO4P3YZhH">Metadata!$C$41</definedName>
+    <definedName name="_OejaVtMvR4x">Metadata!$C$22</definedName>
+    <definedName name="_OFXJXWnOG0R">Metadata!$C$148</definedName>
+    <definedName name="_oofyLUJJ6Vy">Metadata!$C$85</definedName>
+    <definedName name="_oroMC4mMzMq">Metadata!$C$289</definedName>
+    <definedName name="_oWNF4d3PK8C">Metadata!$C$298</definedName>
+    <definedName name="_OX7yvkLP2Uj">Metadata!$C$3</definedName>
+    <definedName name="_oy494aJtjTB">Metadata!$C$255</definedName>
+    <definedName name="_OYOzRJlu3B5">Metadata!$C$54</definedName>
+    <definedName name="_p9tpHX1KEpx">Metadata!$C$14</definedName>
+    <definedName name="_pbH6bmcioGw">Metadata!$C$140</definedName>
+    <definedName name="_pEgSmst6L6E">Metadata!$C$45</definedName>
+    <definedName name="_PevCwH17M73">Metadata!$C$266</definedName>
+    <definedName name="_PFAtPR87fHs">Metadata!$C$115</definedName>
+    <definedName name="_pfhvgmllA9M">Metadata!$C$92</definedName>
+    <definedName name="_pGLy2Zj2lVg">Metadata!$C$313</definedName>
+    <definedName name="_phnE76RjYz8">Metadata!$C$46</definedName>
+    <definedName name="_PJS910L8KtX">Metadata!$C$336</definedName>
+    <definedName name="_pL6jJhifUxq">Metadata!$C$74</definedName>
+    <definedName name="_pLTWjpZ5mIL">Metadata!$C$79</definedName>
+    <definedName name="_pMukkUmnnkh">Metadata!$C$319</definedName>
+    <definedName name="_pp4mjoKsU50">Metadata!$C$24</definedName>
+    <definedName name="_PpjdOoVUc7k">Metadata!$C$153</definedName>
+    <definedName name="_PRrdILmQQb3">Metadata!$C$162</definedName>
+    <definedName name="_PvrMV4NjbtR">Metadata!$C$344</definedName>
+    <definedName name="_PY4aKgi30fr">Metadata!$C$296</definedName>
+    <definedName name="_Pz0LCggcqES">Metadata!$C$242</definedName>
+    <definedName name="_pZZriU4sY0l">Metadata!$C$243</definedName>
+    <definedName name="_q23bFLr2E5D">Metadata!$C$129</definedName>
+    <definedName name="_q2HqXV5OO3z">Metadata!$C$309</definedName>
+    <definedName name="_Q8De2VxoKXS">Metadata!$C$331</definedName>
+    <definedName name="_q9u7nkNkuGy">Metadata!$C$183</definedName>
+    <definedName name="_qbqrFLCJewu">Metadata!$C$292</definedName>
+    <definedName name="_QkOClVdLto1">Metadata!$C$263</definedName>
+    <definedName name="_QLERXr2o7IE">Metadata!$C$168</definedName>
+    <definedName name="_QqAzWHtJ8VC">Metadata!$C$304</definedName>
+    <definedName name="_qqVKuhK0RgY">Metadata!$C$11</definedName>
+    <definedName name="_QSpLidCdqMU">Metadata!$C$143</definedName>
+    <definedName name="_quQpOfBIDFC">Metadata!$C$186</definedName>
+    <definedName name="_rb6V38jgfFc">Metadata!$C$293</definedName>
+    <definedName name="_RDiXMdNXg16">Metadata!$C$295</definedName>
+    <definedName name="_rEQqufy2KNi">Metadata!$C$244</definedName>
+    <definedName name="_Ri2tb7LBVtP">Metadata!$C$173</definedName>
+    <definedName name="_Rmy6DbwekE1">Metadata!$C$89</definedName>
+    <definedName name="_RTdjvXHJdnH">Metadata!$C$137</definedName>
+    <definedName name="_rtLnlu4GUI2">Metadata!$C$241</definedName>
+    <definedName name="_RyAd6laKg3U">Metadata!$C$280</definedName>
+    <definedName name="_s1mzBU7YOaZ">Metadata!$C$152</definedName>
+    <definedName name="_S52uSY3lb8V">Metadata!$C$333</definedName>
+    <definedName name="_SAsS1Kwc4iW">Metadata!$C$285</definedName>
+    <definedName name="_sg5v6c9tCZ3">Metadata!$C$113</definedName>
+    <definedName name="_shRXArPWh8H">Metadata!$C$138</definedName>
+    <definedName name="_SMvtEojhImh">Metadata!$C$39</definedName>
+    <definedName name="_Snhh7MxvJ09">Metadata!$C$82</definedName>
+    <definedName name="_sNmNyudrFxw">Metadata!$C$40</definedName>
+    <definedName name="_SnYHrnchKjL">Metadata!$C$326</definedName>
+    <definedName name="_SsAjVE1S87E">Metadata!$C$197</definedName>
+    <definedName name="_sSIYRwB1r74">Metadata!$C$164</definedName>
+    <definedName name="_ST86paYjRHP">Metadata!$C$98</definedName>
+    <definedName name="_T1irZBQ9gNW">Metadata!$C$219</definedName>
+    <definedName name="_T7tKHiW1Db1">Metadata!$C$100</definedName>
+    <definedName name="_tDFavWinSwr">Metadata!$C$211</definedName>
+    <definedName name="_TIhakAVsQwM">Metadata!$C$226</definedName>
+    <definedName name="_TiqoQCq1BL4">Metadata!$C$15</definedName>
+    <definedName name="_TldYkeCwb5r">Metadata!$C$139</definedName>
+    <definedName name="_tnTRnfd2aVs">Metadata!$C$210</definedName>
+    <definedName name="_TpDwlm2Spev">Metadata!$C$330</definedName>
+    <definedName name="_Tr4i6jeDDqj">Metadata!$C$103</definedName>
+    <definedName name="_true">Metadata!$C$350</definedName>
+    <definedName name="_tSBEjAHKj9V">Metadata!$C$281</definedName>
+    <definedName name="_tV0rWhHr9cj">Metadata!$C$127</definedName>
+    <definedName name="_tVlGzmqqeWo">Metadata!$C$55</definedName>
+    <definedName name="_TWyMjVaaxmT">Metadata!$C$307</definedName>
+    <definedName name="_U2K47T8nDgj">Metadata!$C$49</definedName>
+    <definedName name="_u3GOCB1Hu01">Metadata!$C$125</definedName>
+    <definedName name="_u7H4MyT2Y0A">Metadata!$C$116</definedName>
+    <definedName name="_UJVEh0g7qOo">Metadata!$C$167</definedName>
+    <definedName name="_UlQiEogy3wG">Metadata!$C$274</definedName>
+    <definedName name="_uvTw0Kus5KZ">Metadata!$C$199</definedName>
+    <definedName name="_Uyxr85SOJiI">Metadata!$C$4</definedName>
+    <definedName name="_v2B5AtYQV8H">Metadata!$C$228</definedName>
+    <definedName name="_VbbSe7wgS9s">Metadata!$C$99</definedName>
+    <definedName name="_vboedbUs1As">Metadata!$C$312</definedName>
+    <definedName name="_vg4b11FL2Gl">Metadata!$C$322</definedName>
+    <definedName name="_VGOzFKfSazN">Metadata!$C$86</definedName>
+    <definedName name="_Vgrwxohqyex">Metadata!$C$12</definedName>
+    <definedName name="_viEYrTjQIfC">Metadata!$C$77</definedName>
+    <definedName name="_ViuQB9CLltC">Metadata!$C$34</definedName>
+    <definedName name="_VJrTuNXAg9G">Metadata!$C$327</definedName>
+    <definedName name="_vkXlj7ZPkGi">Metadata!$C$262</definedName>
+    <definedName name="_VMqDEughMuP">Metadata!$C$316</definedName>
+    <definedName name="_vnbnnSZXGTv">Metadata!$C$158</definedName>
+    <definedName name="_VnTycSnraEY">Metadata!$C$166</definedName>
+    <definedName name="_VPesUmegQpP">Metadata!$C$123</definedName>
+    <definedName name="_vPoFz9J1v6Y">Metadata!$C$254</definedName>
+    <definedName name="_VtVkbvygJnm">Metadata!$C$62</definedName>
+    <definedName name="_VwqhqUCaMgk">Metadata!$C$276</definedName>
+    <definedName name="_VYVKdqiXo4b">Metadata!$C$88</definedName>
+    <definedName name="_w3IJVQhc8Rm">Metadata!$C$267</definedName>
+    <definedName name="_WApLDd37Yj2">Metadata!$C$195</definedName>
+    <definedName name="_WC5rU5fLMzY">Metadata!$C$177</definedName>
+    <definedName name="_WDyQKfAvY3V">Metadata!$C$50</definedName>
+    <definedName name="_wFkq5oB0dFS">Metadata!$C$325</definedName>
+    <definedName name="_wimH12ukPK5">Metadata!$C$291</definedName>
+    <definedName name="_wj7iV08dvFq">Metadata!$C$288</definedName>
+    <definedName name="_wMTP4GblKr8">Metadata!$C$265</definedName>
+    <definedName name="_wnuoeS9sVZR">Metadata!$C$248</definedName>
+    <definedName name="_Wpzccx0vjIP">Metadata!$C$261</definedName>
+    <definedName name="_wsmvhizfctg">Metadata!$C$8</definedName>
+    <definedName name="_WtcZBCTspgM">Metadata!$C$315</definedName>
+    <definedName name="_wUBWZEHJm6Q">Metadata!$C$259</definedName>
+    <definedName name="_WuQvgvXKamv">Metadata!$C$238</definedName>
+    <definedName name="_WXGcnQWJ0Qd">Metadata!$C$147</definedName>
+    <definedName name="_wyKC2eWRH3y">Metadata!$C$110</definedName>
+    <definedName name="_x6DVvicRjYC">Metadata!$C$203</definedName>
+    <definedName name="_xb2ezJcUoSR">Metadata!$C$311</definedName>
+    <definedName name="_xB6nQN5Wtpg">Metadata!$C$287</definedName>
+    <definedName name="_XebDUbuPqVx">Metadata!$C$201</definedName>
+    <definedName name="_xeQGICllTPa">Metadata!$C$67</definedName>
+    <definedName name="_XeWqwCw9G5s">Metadata!$C$159</definedName>
+    <definedName name="_Xgr3PJxcWfJ">Metadata!$C$56</definedName>
+    <definedName name="_XiMIOSJ0d3c">Metadata!$C$76</definedName>
+    <definedName name="_XjHXb0aFH5w">Metadata!$C$134</definedName>
+    <definedName name="_XJscL6IuHpd">Metadata!$C$205</definedName>
+    <definedName name="_XKKI1hhyFxk">Metadata!$C$145</definedName>
+    <definedName name="_xqjIL1cGrl1">Metadata!$C$338</definedName>
+    <definedName name="_Xr12mI7VPn3">Metadata!$C$64</definedName>
+    <definedName name="_XYpsN5j30R9">Metadata!$C$229</definedName>
+    <definedName name="_Xz7rnovuiOx">Metadata!$C$120</definedName>
+    <definedName name="_y582ESg0Vjo">Metadata!$C$131</definedName>
+    <definedName name="_Y7EAGQA1bfv">Metadata!$C$60</definedName>
+    <definedName name="_Y7fcspgsU43">Metadata!$C$68</definedName>
+    <definedName name="_yBqy4nxuOCA">Metadata!$C$270</definedName>
+    <definedName name="_Yg9QkNQk9p7">Metadata!$C$151</definedName>
+    <definedName name="_YOL13ptz4ef">Metadata!$C$240</definedName>
+    <definedName name="_yp7OM2HDp2q">Metadata!$C$81</definedName>
+    <definedName name="_YpvMwP4LgpH">Metadata!$C$18</definedName>
+    <definedName name="_yzAMOdV0Pmr">Metadata!$C$257</definedName>
+    <definedName name="_z51rgcc5R8V">Metadata!$C$171</definedName>
+    <definedName name="_z5ouOuycTPO">Metadata!$C$300</definedName>
+    <definedName name="_Z8z72QAYDaj">Metadata!$C$29</definedName>
+    <definedName name="_zaluKz5Llai">Metadata!$C$217</definedName>
+    <definedName name="_Zav7juzGmEo">Metadata!$C$260</definedName>
+    <definedName name="_ZcrjvJaYQb7">Metadata!$C$126</definedName>
+    <definedName name="_Zdl3ad7PayF">Metadata!$C$142</definedName>
+    <definedName name="_zEYrsiNUGIo">Metadata!$C$161</definedName>
+    <definedName name="_zFInPJBZVbN">Metadata!$C$128</definedName>
+    <definedName name="_ZgsdoEiTlLq">Metadata!$C$283</definedName>
+    <definedName name="_ZRxKEGQmkWI">Metadata!$C$271</definedName>
+    <definedName name="_zYQqFxQw5jj">Metadata!$C$317</definedName>
+    <definedName name="_ZzoDfdWIt6z">Metadata!$C$107</definedName>
     <definedName name="dropdownlist">Characteristics!$AE$2:INDEX(Characteristics!$AE$2:$AE$250,MAX(Characteristics!$AD$2:$AD$250),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1029">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2285,9 +2636,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Health Workforce Employment Characteristics and Working Conditions</t>
@@ -2379,12 +2727,6 @@
     <t>Existence/Value</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>dNLjKwsVjod</t>
   </si>
   <si>
@@ -2590,6 +2932,540 @@
   </si>
   <si>
     <t>NHWA_MODULE_6_v1</t>
+  </si>
+  <si>
+    <t>True only</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>Organisation Units</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>organisationUnit</t>
+  </si>
+  <si>
+    <t>Health-care provider</t>
+  </si>
+  <si>
+    <t>categoryOptions</t>
+  </si>
+  <si>
+    <t>I5WRaMzhVsu</t>
+  </si>
+  <si>
+    <t>K5u7PTVJDz9</t>
+  </si>
+  <si>
+    <t>Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>Snhh7MxvJ09</t>
+  </si>
+  <si>
+    <t>General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>yp7OM2HDp2q</t>
+  </si>
+  <si>
+    <t>Psychological attacks</t>
+  </si>
+  <si>
+    <t>gPN4hQ7GROc</t>
+  </si>
+  <si>
+    <t>Physical attacks</t>
+  </si>
+  <si>
+    <t>pLTWjpZ5mIL</t>
+  </si>
+  <si>
+    <t>kHofJhihOKw</t>
+  </si>
+  <si>
+    <t>viEYrTjQIfC</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>XiMIOSJ0d3c</t>
+  </si>
+  <si>
+    <t>Midwifery Professional</t>
+  </si>
+  <si>
+    <t>CpV0L0Y9i9h</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>pL6jJhifUxq</t>
+  </si>
+  <si>
+    <t>KahDmiRilJb</t>
+  </si>
+  <si>
+    <t>Nursing Professional</t>
+  </si>
+  <si>
+    <t>ncopO2Sj2RB</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>KyFesytPvpt</t>
+  </si>
+  <si>
+    <t>KKBsggVfCTv</t>
+  </si>
+  <si>
+    <t>B9p76UEP9T6</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Y7fcspgsU43</t>
+  </si>
+  <si>
+    <t>NHWA_Patient</t>
+  </si>
+  <si>
+    <t>categoryOptionCombos</t>
+  </si>
+  <si>
+    <t>xeQGICllTPa</t>
+  </si>
+  <si>
+    <t>NHWA_Transport</t>
+  </si>
+  <si>
+    <t>MfcVRlA41v6</t>
+  </si>
+  <si>
+    <t>old_NHWA_Midwifery Professional</t>
+  </si>
+  <si>
+    <t>MPzyVWiSFF2</t>
+  </si>
+  <si>
+    <t>Xr12mI7VPn3</t>
+  </si>
+  <si>
+    <t>old_NHWA_General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>LHbCtHlZr3Y</t>
+  </si>
+  <si>
+    <t>old_NHWA_Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>VtVkbvygJnm</t>
+  </si>
+  <si>
+    <t>old_NHWA_Nursing Professional</t>
+  </si>
+  <si>
+    <t>fGOgbIqsxDn</t>
+  </si>
+  <si>
+    <t>NHWA_No</t>
+  </si>
+  <si>
+    <t>Y7EAGQA1bfv</t>
+  </si>
+  <si>
+    <t>NHWA_Health-care provider</t>
+  </si>
+  <si>
+    <t>JfxMvAwKsR7</t>
+  </si>
+  <si>
+    <t>old_NHWA_Dentist</t>
+  </si>
+  <si>
+    <t>ALBRKpJsddQ</t>
+  </si>
+  <si>
+    <t>NHWA_Physical attacks</t>
+  </si>
+  <si>
+    <t>AcYy9PESCS4</t>
+  </si>
+  <si>
+    <t>NHWA_Partial</t>
+  </si>
+  <si>
+    <t>Xgr3PJxcWfJ</t>
+  </si>
+  <si>
+    <t>NHWA_Psychological attacks</t>
+  </si>
+  <si>
+    <t>tVlGzmqqeWo</t>
+  </si>
+  <si>
+    <t>NHWA_Facility</t>
+  </si>
+  <si>
+    <t>OYOzRJlu3B5</t>
+  </si>
+  <si>
+    <t>old_NHWA_Medical Doctors</t>
+  </si>
+  <si>
+    <t>aBpbcEgtzgw</t>
+  </si>
+  <si>
+    <t>NHWA_Yes</t>
+  </si>
+  <si>
+    <t>I93t0K7b1oN</t>
+  </si>
+  <si>
+    <t>old_NHWA_Pharmacist</t>
+  </si>
+  <si>
+    <t>iWRW6jXAzvP</t>
+  </si>
+  <si>
+    <t>NHWA Module 6</t>
+  </si>
+  <si>
+    <t>dataSets</t>
+  </si>
+  <si>
+    <t>WDyQKfAvY3V</t>
+  </si>
+  <si>
+    <t>HWF Module 6</t>
+  </si>
+  <si>
+    <t>dataEntryForms</t>
+  </si>
+  <si>
+    <t>U2K47T8nDgj</t>
+  </si>
+  <si>
+    <t>NHWA_Yes Partial No</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>BGi4lPgaJ07</t>
+  </si>
+  <si>
+    <t>DMyxTSpvKOp</t>
+  </si>
+  <si>
+    <t>NHWA_Key Occupations</t>
+  </si>
+  <si>
+    <t>phnE76RjYz8</t>
+  </si>
+  <si>
+    <t>NHWA_Attack type</t>
+  </si>
+  <si>
+    <t>pEgSmst6L6E</t>
+  </si>
+  <si>
+    <t>NHWA_Primary object of attack</t>
+  </si>
+  <si>
+    <t>DyaPQBiCIbE</t>
+  </si>
+  <si>
+    <t>categoryCombos</t>
+  </si>
+  <si>
+    <t>CVlyw498LdE</t>
+  </si>
+  <si>
+    <t>JzvGfLYkX17</t>
+  </si>
+  <si>
+    <t>O8QO4P3YZhH</t>
+  </si>
+  <si>
+    <t>sNmNyudrFxw</t>
+  </si>
+  <si>
+    <t>SMvtEojhImh</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>regulations on minimum wages</t>
+  </si>
+  <si>
+    <t>dataElements</t>
+  </si>
+  <si>
+    <t>di91e0qZijs</t>
+  </si>
+  <si>
+    <t>INTEGER_ZERO_OR_POSITIVE</t>
+  </si>
+  <si>
+    <t>HWF with Part Time Contract total</t>
+  </si>
+  <si>
+    <t>hBzWHe6kuvu</t>
+  </si>
+  <si>
+    <t>Existence of policy on compulsory service</t>
+  </si>
+  <si>
+    <t>Ii26DODuUbB</t>
+  </si>
+  <si>
+    <t>LONG_TEXT</t>
+  </si>
+  <si>
+    <t>Comment law working hours Midwifery Professional</t>
+  </si>
+  <si>
+    <t>MSX8eTjkneO</t>
+  </si>
+  <si>
+    <t>Violent attacks on patient by attack type</t>
+  </si>
+  <si>
+    <t>ViuQB9CLltC</t>
+  </si>
+  <si>
+    <t>HWF with Part Time Contract public facility</t>
+  </si>
+  <si>
+    <t>C8MvR5CNwpG</t>
+  </si>
+  <si>
+    <t>TRUE_ONLY</t>
+  </si>
+  <si>
+    <t>Regulation on social protection</t>
+  </si>
+  <si>
+    <t>lvs1RCQOOp4</t>
+  </si>
+  <si>
+    <t>Health workforce Self employed</t>
+  </si>
+  <si>
+    <t>N6VNhZ2PCG7</t>
+  </si>
+  <si>
+    <t>Violent attacks on health workers by attack object</t>
+  </si>
+  <si>
+    <t>iS6Vzt6PPjr</t>
+  </si>
+  <si>
+    <t>Comment law working hours  - Nursing Professional</t>
+  </si>
+  <si>
+    <t>Z8z72QAYDaj</t>
+  </si>
+  <si>
+    <t>Existence of a policy on dual practice</t>
+  </si>
+  <si>
+    <t>cV7DhKFPk3R</t>
+  </si>
+  <si>
+    <t>Standard Working Hours in a week</t>
+  </si>
+  <si>
+    <t>GeY6o2BMvp1</t>
+  </si>
+  <si>
+    <t>Violent attacks on HC worker by attack type</t>
+  </si>
+  <si>
+    <t>fNWDIhx3ZQO</t>
+  </si>
+  <si>
+    <t>national law on Pharmacist</t>
+  </si>
+  <si>
+    <t>gDinmRT6Pqb</t>
+  </si>
+  <si>
+    <t>Comment law working hours Dentist</t>
+  </si>
+  <si>
+    <t>pp4mjoKsU50</t>
+  </si>
+  <si>
+    <t>Comment policies prevention of attacks</t>
+  </si>
+  <si>
+    <t>FXC8HIEHwHI</t>
+  </si>
+  <si>
+    <t>Comment law working hours Pharmacist</t>
+  </si>
+  <si>
+    <t>OejaVtMvR4x</t>
+  </si>
+  <si>
+    <t>national law on Nursing Professional</t>
+  </si>
+  <si>
+    <t>DVyhvgkJrXg</t>
+  </si>
+  <si>
+    <t>Existence of policy on prevention of attacks</t>
+  </si>
+  <si>
+    <t>LUVRqQq2NLE</t>
+  </si>
+  <si>
+    <t>HWF Part Time Contract private for profit facility</t>
+  </si>
+  <si>
+    <t>KlsBVkjtkkV</t>
+  </si>
+  <si>
+    <t>FILE_RESOURCE</t>
+  </si>
+  <si>
+    <t>HWF Module 6 File upload</t>
+  </si>
+  <si>
+    <t>YpvMwP4LgpH</t>
+  </si>
+  <si>
+    <t>iM5NIZBqAUL</t>
+  </si>
+  <si>
+    <t>national law on medical doctors</t>
+  </si>
+  <si>
+    <t>LYjT01KiTTw</t>
+  </si>
+  <si>
+    <t>Comment policies regulating dual practice</t>
+  </si>
+  <si>
+    <t>TiqoQCq1BL4</t>
+  </si>
+  <si>
+    <t>Comment law working hours  - Medical Doctors</t>
+  </si>
+  <si>
+    <t>p9tpHX1KEpx</t>
+  </si>
+  <si>
+    <t>national law on Dentist</t>
+  </si>
+  <si>
+    <t>I5m9Dl43XO2</t>
+  </si>
+  <si>
+    <t>Comment law working hours General M Practitioner</t>
+  </si>
+  <si>
+    <t>Vgrwxohqyex</t>
+  </si>
+  <si>
+    <t>Violent attacks on health workers</t>
+  </si>
+  <si>
+    <t>qqVKuhK0RgY</t>
+  </si>
+  <si>
+    <t>Comment law working hours Specialist Practitioner</t>
+  </si>
+  <si>
+    <t>diMX6HJrY20</t>
+  </si>
+  <si>
+    <t>Comment policies/laws regulating minimum wages</t>
+  </si>
+  <si>
+    <t>NI5EQM6hHmc</t>
+  </si>
+  <si>
+    <t>HWF Part Time Contract not for profit facility</t>
+  </si>
+  <si>
+    <t>wsmvhizfctg</t>
+  </si>
+  <si>
+    <t>Comment policies regulating compulsory service</t>
+  </si>
+  <si>
+    <t>d7hKlZbQARX</t>
+  </si>
+  <si>
+    <t>national law on Specialist Medical Practitioner</t>
+  </si>
+  <si>
+    <t>FDUFnJmPb2t</t>
+  </si>
+  <si>
+    <t>national law on General Medical Practitioner</t>
+  </si>
+  <si>
+    <t>gGSJZCN2L8C</t>
+  </si>
+  <si>
+    <t>national law on Midwifery Professional</t>
+  </si>
+  <si>
+    <t>Uyxr85SOJiI</t>
+  </si>
+  <si>
+    <t>Comment policies/laws regulating social protection</t>
+  </si>
+  <si>
+    <t>OX7yvkLP2Uj</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>Option Set</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +3476,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2654,8 +3530,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2678,6 +3560,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2808,7 +3695,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2830,8 +3717,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2915,7 +3803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2953,6 +3840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3009,9 +3897,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3030,6 +3934,7 @@
     <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 9" xfId="19" xr:uid="{344DD92F-5C8C-4E47-B194-E6435E847F3A}"/>
     <cellStyle name="tgl" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3045,122 +3950,43 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$9" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$9" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$10" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$11" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$12" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$13" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$14" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$15" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$20" fmlaRange="$M$5:$M$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$21" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$10" fmlaRange="$O$4:$O$6" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$11" fmlaRange="$O$4:$O$6" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$9" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$10" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$11" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$12" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$13" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$N$14" fmlaRange="$N$4:$N$7" noThreeD="1" sel="1" val="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="ComboBox1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3220,126 +4046,10 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4106" name="Drop Down 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4106"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A100000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4107" name="Drop Down 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4107"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B100000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3713,64 +4423,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000141C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7189" name="Drop Down 21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7189"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000151C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4186,12 +4838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BZ266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4214,8 +4866,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>853</v>
+      <c r="A1" s="45" t="s">
+        <v>850</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>0</v>
@@ -4238,9 +4890,7 @@
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="9" t="s">
-        <v>753</v>
-      </c>
+      <c r="V1" s="9"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="4" t="s">
@@ -4258,7 +4908,7 @@
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4278,10 +4928,7 @@
       <c r="R2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="10" t="e">
-        <f>VLOOKUP(V1,Y2:AB250,2,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="V2" s="10"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="4" t="s">
@@ -4362,17 +5009,18 @@
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="66"/>
       <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="28" t="str">
-        <f>IFERROR(VLOOKUP(V1,Y2:AB250,4,0),"")</f>
+        <f>IFERROR(VLOOKUP(C4,Y2:AB250,4,0),"")</f>
         <v/>
       </c>
       <c r="H4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="41"/>
+      <c r="I4" s="40"/>
       <c r="Y4" s="4" t="s">
         <v>11</v>
       </c>
@@ -4449,9 +5097,9 @@
         <v>749</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>773</v>
-      </c>
-      <c r="E6" s="42"/>
+        <v>772</v>
+      </c>
+      <c r="E6" s="41"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -4496,7 +5144,7 @@
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="56"/>
-      <c r="E7" s="42"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4542,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+        <v>754</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4561,16 +5209,16 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="Y8" s="45" t="s">
+      <c r="Y8" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="Z8" s="45" t="s">
+      <c r="Z8" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="AA8" s="45" t="s">
+      <c r="AA8" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="AB8" s="45" t="s">
+      <c r="AB8" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC8" s="4">
@@ -4606,16 +5254,16 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="Z9" s="45" t="s">
+      <c r="Z9" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AB9" s="45" t="s">
+      <c r="AB9" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC9" s="4">
@@ -4651,16 +5299,16 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="Y10" s="45" t="s">
+      <c r="Y10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" s="45" t="s">
+      <c r="Z10" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AA10" s="45" t="s">
+      <c r="AA10" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="AB10" s="45" t="s">
+      <c r="AB10" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC10" s="4">
@@ -4684,16 +5332,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="54"/>
       <c r="I11" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -4702,16 +5350,16 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="Z11" s="45" t="s">
+      <c r="Z11" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="AA11" s="45" t="s">
+      <c r="AA11" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="AB11" s="45" t="s">
+      <c r="AB11" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC11" s="4">
@@ -4732,16 +5380,16 @@
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
       <c r="E12" s="24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F12" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>770</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>771</v>
       </c>
       <c r="I12" s="47"/>
       <c r="N12" s="14"/>
@@ -4751,16 +5399,16 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="Y12" s="45" t="s">
+      <c r="Y12" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="Z12" s="45" t="s">
+      <c r="Z12" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="AA12" s="45" t="s">
+      <c r="AA12" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="AB12" s="45" t="s">
+      <c r="AB12" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC12" s="4">
@@ -4796,16 +5444,16 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="Y13" s="45" t="s">
+      <c r="Y13" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="Z13" s="45" t="s">
+      <c r="Z13" s="44" t="s">
         <v>692</v>
       </c>
-      <c r="AA13" s="45" t="s">
+      <c r="AA13" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="AB13" s="45" t="s">
+      <c r="AB13" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC13" s="4">
@@ -4822,11 +5470,11 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>783</v>
+      <c r="B14" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -4841,16 +5489,16 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="Y14" s="45" t="s">
+      <c r="Y14" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="45" t="s">
+      <c r="Z14" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="AA14" s="45" t="s">
+      <c r="AA14" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="AB14" s="45" t="s">
+      <c r="AB14" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC14" s="4">
@@ -4867,11 +5515,11 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>784</v>
+      <c r="B15" s="6">
+        <v>1.2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -4886,16 +5534,16 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="Y15" s="45" t="s">
+      <c r="Y15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="Z15" s="45" t="s">
+      <c r="Z15" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="AA15" s="45" t="s">
+      <c r="AA15" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="AB15" s="45" t="s">
+      <c r="AB15" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC15" s="4">
@@ -4924,16 +5572,16 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="Y16" s="45" t="s">
+      <c r="Y16" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="Z16" s="45" t="s">
+      <c r="Z16" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="AA16" s="45" t="s">
+      <c r="AA16" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="AB16" s="45" t="s">
+      <c r="AB16" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC16" s="4">
@@ -4956,22 +5604,22 @@
       <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="Y17" s="45" t="s">
+      <c r="Y17" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="Z17" s="45" t="s">
+      <c r="Z17" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="AA17" s="45" t="s">
+      <c r="AA17" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="AB17" s="45" t="s">
+      <c r="AB17" s="44" t="s">
         <v>369</v>
       </c>
       <c r="AC17" s="4">
@@ -5000,16 +5648,16 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="Y18" s="45" t="s">
+      <c r="Y18" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="Z18" s="45" t="s">
-        <v>785</v>
-      </c>
-      <c r="AA18" s="45" t="s">
+      <c r="Z18" s="44" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA18" s="44" t="s">
         <v>670</v>
       </c>
-      <c r="AB18" s="45" t="s">
+      <c r="AB18" s="44" t="s">
         <v>671</v>
       </c>
       <c r="AC18" s="4">
@@ -5038,16 +5686,16 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="Y19" s="45" t="s">
+      <c r="Y19" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="Z19" s="45" t="s">
+      <c r="Z19" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="AA19" s="45" t="s">
+      <c r="AA19" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="AB19" s="45" t="s">
+      <c r="AB19" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC19" s="4">
@@ -5064,16 +5712,16 @@
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="Z20" s="45" t="s">
+      <c r="Z20" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="AA20" s="45" t="s">
+      <c r="AA20" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="AB20" s="45" t="s">
+      <c r="AB20" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC20" s="4">
@@ -5090,16 +5738,16 @@
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y21" s="45" t="s">
+      <c r="Y21" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="Z21" s="45" t="s">
+      <c r="Z21" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="AA21" s="45" t="s">
+      <c r="AA21" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="AB21" s="45" t="s">
+      <c r="AB21" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC21" s="4">
@@ -5116,16 +5764,16 @@
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y22" s="45" t="s">
+      <c r="Y22" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="Z22" s="45" t="s">
+      <c r="Z22" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="AA22" s="45" t="s">
+      <c r="AA22" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AB22" s="45" t="s">
+      <c r="AB22" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC22" s="4">
@@ -5142,16 +5790,16 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y23" s="45" t="s">
+      <c r="Y23" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Z23" s="45" t="s">
+      <c r="Z23" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AA23" s="45" t="s">
+      <c r="AA23" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="AB23" s="45" t="s">
+      <c r="AB23" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC23" s="4">
@@ -5168,16 +5816,16 @@
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y24" s="45" t="s">
+      <c r="Y24" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="Z24" s="45" t="s">
+      <c r="Z24" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="AA24" s="45" t="s">
+      <c r="AA24" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="AB24" s="45" t="s">
+      <c r="AB24" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC24" s="4">
@@ -5194,16 +5842,16 @@
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y25" s="45" t="s">
+      <c r="Y25" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="Z25" s="45" t="s">
+      <c r="Z25" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="AA25" s="45" t="s">
+      <c r="AA25" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="AB25" s="45" t="s">
+      <c r="AB25" s="44" t="s">
         <v>671</v>
       </c>
       <c r="AC25" s="4">
@@ -5220,16 +5868,16 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y26" s="45" t="s">
+      <c r="Y26" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Z26" s="45" t="s">
+      <c r="Z26" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="AA26" s="45" t="s">
+      <c r="AA26" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="AB26" s="45" t="s">
+      <c r="AB26" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC26" s="4">
@@ -5246,16 +5894,16 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y27" s="45" t="s">
+      <c r="Y27" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="Z27" s="45" t="s">
+      <c r="Z27" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="AA27" s="45" t="s">
+      <c r="AA27" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="AB27" s="45" t="s">
+      <c r="AB27" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC27" s="4">
@@ -5272,16 +5920,16 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y28" s="45" t="s">
+      <c r="Y28" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Z28" s="45" t="s">
+      <c r="Z28" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="AA28" s="45" t="s">
+      <c r="AA28" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="AB28" s="45" t="s">
+      <c r="AB28" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC28" s="4">
@@ -5298,16 +5946,16 @@
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y29" s="45" t="s">
+      <c r="Y29" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Z29" s="45" t="s">
+      <c r="Z29" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="AA29" s="45" t="s">
+      <c r="AA29" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="AB29" s="45" t="s">
+      <c r="AB29" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC29" s="4">
@@ -5324,16 +5972,16 @@
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y30" s="45" t="s">
-        <v>786</v>
-      </c>
-      <c r="Z30" s="45" t="s">
-        <v>787</v>
-      </c>
-      <c r="AA30" s="45" t="s">
-        <v>788</v>
-      </c>
-      <c r="AB30" s="45" t="s">
+      <c r="Y30" s="44" t="s">
+        <v>783</v>
+      </c>
+      <c r="Z30" s="44" t="s">
+        <v>784</v>
+      </c>
+      <c r="AA30" s="44" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB30" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC30" s="4">
@@ -5350,16 +5998,16 @@
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y31" s="45" t="s">
+      <c r="Y31" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="45" t="s">
+      <c r="Z31" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="AA31" s="45" t="s">
+      <c r="AA31" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="AB31" s="45" t="s">
+      <c r="AB31" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC31" s="4">
@@ -5376,16 +6024,16 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Y32" s="45" t="s">
-        <v>789</v>
-      </c>
-      <c r="Z32" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="AA32" s="45" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB32" s="45" t="s">
+      <c r="Y32" s="44" t="s">
+        <v>786</v>
+      </c>
+      <c r="Z32" s="44" t="s">
+        <v>787</v>
+      </c>
+      <c r="AA32" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB32" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC32" s="4">
@@ -5402,16 +6050,16 @@
       </c>
     </row>
     <row r="33" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y33" s="45" t="s">
+      <c r="Y33" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="Z33" s="45" t="s">
+      <c r="Z33" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="AA33" s="45" t="s">
+      <c r="AA33" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="AB33" s="45" t="s">
+      <c r="AB33" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC33" s="4">
@@ -5428,16 +6076,16 @@
       </c>
     </row>
     <row r="34" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y34" s="45" t="s">
+      <c r="Y34" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="Z34" s="45" t="s">
+      <c r="Z34" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="AA34" s="45" t="s">
+      <c r="AA34" s="44" t="s">
         <v>696</v>
       </c>
-      <c r="AB34" s="45" t="s">
+      <c r="AB34" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC34" s="4">
@@ -5454,16 +6102,16 @@
       </c>
     </row>
     <row r="35" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y35" s="45" t="s">
+      <c r="Y35" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Z35" s="45" t="s">
+      <c r="Z35" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="AA35" s="45" t="s">
+      <c r="AA35" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="AB35" s="45" t="s">
+      <c r="AB35" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC35" s="4">
@@ -5480,16 +6128,16 @@
       </c>
     </row>
     <row r="36" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y36" s="45" t="s">
+      <c r="Y36" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Z36" s="45" t="s">
+      <c r="Z36" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="AA36" s="45" t="s">
+      <c r="AA36" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="AB36" s="45" t="s">
+      <c r="AB36" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC36" s="4">
@@ -5506,16 +6154,16 @@
       </c>
     </row>
     <row r="37" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y37" s="45" t="s">
+      <c r="Y37" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Z37" s="45" t="s">
+      <c r="Z37" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="AA37" s="45" t="s">
+      <c r="AA37" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="AB37" s="45" t="s">
+      <c r="AB37" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC37" s="4">
@@ -5532,16 +6180,16 @@
       </c>
     </row>
     <row r="38" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y38" s="45" t="s">
+      <c r="Y38" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="Z38" s="45" t="s">
+      <c r="Z38" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="AA38" s="45" t="s">
+      <c r="AA38" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="AB38" s="45" t="s">
+      <c r="AB38" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC38" s="4">
@@ -5558,16 +6206,16 @@
       </c>
     </row>
     <row r="39" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y39" s="45" t="s">
+      <c r="Y39" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="Z39" s="45" t="s">
+      <c r="Z39" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="AA39" s="45" t="s">
+      <c r="AA39" s="44" t="s">
         <v>698</v>
       </c>
-      <c r="AB39" s="45" t="s">
+      <c r="AB39" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC39" s="4">
@@ -5584,16 +6232,16 @@
       </c>
     </row>
     <row r="40" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y40" s="45" t="s">
+      <c r="Y40" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Z40" s="45" t="s">
+      <c r="Z40" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="AA40" s="45" t="s">
+      <c r="AA40" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="AB40" s="45" t="s">
+      <c r="AB40" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC40" s="4">
@@ -5610,16 +6258,16 @@
       </c>
     </row>
     <row r="41" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y41" s="45" t="s">
+      <c r="Y41" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="Z41" s="45" t="s">
+      <c r="Z41" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="AA41" s="45" t="s">
+      <c r="AA41" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="AB41" s="45" t="s">
+      <c r="AB41" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC41" s="4">
@@ -5636,16 +6284,16 @@
       </c>
     </row>
     <row r="42" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y42" s="45" t="s">
+      <c r="Y42" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="Z42" s="45" t="s">
+      <c r="Z42" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="AA42" s="45" t="s">
+      <c r="AA42" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="AB42" s="45" t="s">
+      <c r="AB42" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC42" s="4">
@@ -5662,16 +6310,16 @@
       </c>
     </row>
     <row r="43" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y43" s="45" t="s">
+      <c r="Y43" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Z43" s="45" t="s">
+      <c r="Z43" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="AA43" s="45" t="s">
+      <c r="AA43" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="AB43" s="45" t="s">
+      <c r="AB43" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC43" s="4">
@@ -5688,16 +6336,16 @@
       </c>
     </row>
     <row r="44" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y44" s="45" t="s">
+      <c r="Y44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Z44" s="45" t="s">
+      <c r="Z44" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="AA44" s="45" t="s">
+      <c r="AA44" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="AB44" s="45" t="s">
+      <c r="AB44" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC44" s="4">
@@ -5714,16 +6362,16 @@
       </c>
     </row>
     <row r="45" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y45" s="45" t="s">
+      <c r="Y45" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="Z45" s="45" t="s">
+      <c r="Z45" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="AA45" s="45" t="s">
+      <c r="AA45" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="AB45" s="45" t="s">
+      <c r="AB45" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC45" s="4">
@@ -5740,16 +6388,16 @@
       </c>
     </row>
     <row r="46" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y46" s="45" t="s">
+      <c r="Y46" s="44" t="s">
         <v>699</v>
       </c>
-      <c r="Z46" s="45" t="s">
+      <c r="Z46" s="44" t="s">
         <v>700</v>
       </c>
-      <c r="AA46" s="45" t="s">
+      <c r="AA46" s="44" t="s">
         <v>701</v>
       </c>
-      <c r="AB46" s="45" t="s">
+      <c r="AB46" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC46" s="4">
@@ -5766,16 +6414,16 @@
       </c>
     </row>
     <row r="47" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y47" s="45" t="s">
-        <v>792</v>
-      </c>
-      <c r="Z47" s="45" t="s">
+      <c r="Y47" s="44" t="s">
+        <v>789</v>
+      </c>
+      <c r="Z47" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="AA47" s="45" t="s">
+      <c r="AA47" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="AB47" s="45" t="s">
+      <c r="AB47" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC47" s="4">
@@ -5792,16 +6440,16 @@
       </c>
     </row>
     <row r="48" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y48" s="45" t="s">
-        <v>793</v>
-      </c>
-      <c r="Z48" s="45" t="s">
+      <c r="Y48" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z48" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="AA48" s="45" t="s">
+      <c r="AA48" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="AB48" s="45" t="s">
+      <c r="AB48" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC48" s="4">
@@ -5818,16 +6466,16 @@
       </c>
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y49" s="45" t="s">
-        <v>794</v>
-      </c>
-      <c r="Z49" s="45" t="s">
-        <v>795</v>
-      </c>
-      <c r="AA49" s="45" t="s">
-        <v>796</v>
-      </c>
-      <c r="AB49" s="45" t="s">
+      <c r="Y49" s="44" t="s">
+        <v>791</v>
+      </c>
+      <c r="Z49" s="44" t="s">
+        <v>792</v>
+      </c>
+      <c r="AA49" s="44" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB49" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC49" s="4">
@@ -5844,16 +6492,16 @@
       </c>
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y50" s="45" t="s">
+      <c r="Y50" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="Z50" s="45" t="s">
+      <c r="Z50" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="AA50" s="45" t="s">
+      <c r="AA50" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="AB50" s="45" t="s">
+      <c r="AB50" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC50" s="4">
@@ -5870,16 +6518,16 @@
       </c>
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y51" s="45" t="s">
-        <v>797</v>
-      </c>
-      <c r="Z51" s="45" t="s">
-        <v>798</v>
-      </c>
-      <c r="AA51" s="45" t="s">
-        <v>799</v>
-      </c>
-      <c r="AB51" s="45" t="s">
+      <c r="Y51" s="44" t="s">
+        <v>794</v>
+      </c>
+      <c r="Z51" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="AA51" s="44" t="s">
+        <v>796</v>
+      </c>
+      <c r="AB51" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC51" s="4">
@@ -5896,16 +6544,16 @@
       </c>
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y52" s="45" t="s">
-        <v>800</v>
-      </c>
-      <c r="Z52" s="45" t="s">
-        <v>801</v>
-      </c>
-      <c r="AA52" s="45" t="s">
-        <v>802</v>
-      </c>
-      <c r="AB52" s="45" t="s">
+      <c r="Y52" s="44" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z52" s="44" t="s">
+        <v>798</v>
+      </c>
+      <c r="AA52" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="AB52" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC52" s="4">
@@ -5922,16 +6570,16 @@
       </c>
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y53" s="45" t="s">
+      <c r="Y53" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="Z53" s="45" t="s">
+      <c r="Z53" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="AA53" s="45" t="s">
+      <c r="AA53" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="AB53" s="45" t="s">
+      <c r="AB53" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC53" s="4">
@@ -5948,16 +6596,16 @@
       </c>
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y54" s="45" t="s">
+      <c r="Y54" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="Z54" s="45" t="s">
+      <c r="Z54" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AA54" s="45" t="s">
+      <c r="AA54" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="AB54" s="45" t="s">
+      <c r="AB54" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC54" s="4">
@@ -5974,16 +6622,16 @@
       </c>
     </row>
     <row r="55" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y55" s="45" t="s">
+      <c r="Y55" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="Z55" s="45" t="s">
+      <c r="Z55" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AA55" s="45" t="s">
+      <c r="AA55" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="AB55" s="45" t="s">
+      <c r="AB55" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC55" s="4">
@@ -6000,16 +6648,16 @@
       </c>
     </row>
     <row r="56" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y56" s="45" t="s">
+      <c r="Y56" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="Z56" s="45" t="s">
+      <c r="Z56" s="44" t="s">
         <v>702</v>
       </c>
-      <c r="AA56" s="45" t="s">
+      <c r="AA56" s="44" t="s">
         <v>703</v>
       </c>
-      <c r="AB56" s="45" t="s">
+      <c r="AB56" s="44" t="s">
         <v>694</v>
       </c>
       <c r="AC56" s="4">
@@ -6050,16 +6698,16 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
-      <c r="Y57" s="45" t="s">
+      <c r="Y57" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="Z57" s="45" t="s">
+      <c r="Z57" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="AA57" s="45" t="s">
+      <c r="AA57" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="AB57" s="45" t="s">
+      <c r="AB57" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC57" s="4">
@@ -6123,16 +6771,16 @@
       <c r="BZ57" s="4"/>
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y58" s="45" t="s">
+      <c r="Y58" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="Z58" s="45" t="s">
+      <c r="Z58" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="AA58" s="45" t="s">
+      <c r="AA58" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="AB58" s="45" t="s">
+      <c r="AB58" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC58" s="4">
@@ -6149,16 +6797,16 @@
       </c>
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y59" s="45" t="s">
+      <c r="Y59" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Z59" s="45" t="s">
+      <c r="Z59" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="AA59" s="45" t="s">
+      <c r="AA59" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="AB59" s="45" t="s">
+      <c r="AB59" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC59" s="4">
@@ -6175,16 +6823,16 @@
       </c>
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y60" s="45" t="s">
-        <v>803</v>
-      </c>
-      <c r="Z60" s="45" t="s">
+      <c r="Y60" s="44" t="s">
+        <v>800</v>
+      </c>
+      <c r="Z60" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="AA60" s="45" t="s">
+      <c r="AA60" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="AB60" s="45" t="s">
+      <c r="AB60" s="44" t="s">
         <v>297</v>
       </c>
       <c r="AC60" s="4">
@@ -6201,16 +6849,16 @@
       </c>
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y61" s="45" t="s">
+      <c r="Y61" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Z61" s="45" t="s">
+      <c r="Z61" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="AA61" s="45" t="s">
+      <c r="AA61" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="AB61" s="45" t="s">
+      <c r="AB61" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC61" s="4">
@@ -6227,16 +6875,16 @@
       </c>
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y62" s="45" t="s">
-        <v>804</v>
-      </c>
-      <c r="Z62" s="45" t="s">
+      <c r="Y62" s="44" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z62" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="AA62" s="45" t="s">
+      <c r="AA62" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="AB62" s="45" t="s">
+      <c r="AB62" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC62" s="4">
@@ -6253,16 +6901,16 @@
       </c>
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y63" s="45" t="s">
+      <c r="Y63" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="Z63" s="45" t="s">
+      <c r="Z63" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="AA63" s="45" t="s">
+      <c r="AA63" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="AB63" s="45" t="s">
+      <c r="AB63" s="44" t="s">
         <v>523</v>
       </c>
       <c r="AC63" s="4">
@@ -6279,16 +6927,16 @@
       </c>
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="Y64" s="45" t="s">
-        <v>805</v>
-      </c>
-      <c r="Z64" s="45" t="s">
+      <c r="Y64" s="44" t="s">
+        <v>802</v>
+      </c>
+      <c r="Z64" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="AA64" s="45" t="s">
+      <c r="AA64" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="AB64" s="45" t="s">
+      <c r="AB64" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC64" s="4">
@@ -6305,16 +6953,16 @@
       </c>
     </row>
     <row r="65" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y65" s="45" t="s">
+      <c r="Y65" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="Z65" s="45" t="s">
+      <c r="Z65" s="44" t="s">
         <v>674</v>
       </c>
-      <c r="AA65" s="45" t="s">
+      <c r="AA65" s="44" t="s">
         <v>675</v>
       </c>
-      <c r="AB65" s="45" t="s">
+      <c r="AB65" s="44" t="s">
         <v>671</v>
       </c>
       <c r="AC65" s="4">
@@ -6331,16 +6979,16 @@
       </c>
     </row>
     <row r="66" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y66" s="45" t="s">
+      <c r="Y66" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Z66" s="45" t="s">
+      <c r="Z66" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="AA66" s="45" t="s">
+      <c r="AA66" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="AB66" s="45" t="s">
+      <c r="AB66" s="44" t="s">
         <v>199</v>
       </c>
       <c r="AC66" s="4">
@@ -6357,16 +7005,16 @@
       </c>
     </row>
     <row r="67" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y67" s="45" t="s">
+      <c r="Y67" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="Z67" s="45" t="s">
+      <c r="Z67" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="AA67" s="45" t="s">
+      <c r="AA67" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="AB67" s="45" t="s">
+      <c r="AB67" s="44" t="s">
         <v>415</v>
       </c>
       <c r="AC67" s="4">
@@ -6618,7 +7266,7 @@
     </row>
     <row r="77" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y77" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Z77" s="4" t="s">
         <v>283</v>
@@ -6852,13 +7500,13 @@
     </row>
     <row r="86" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y86" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AA86" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AB86" s="4" t="s">
         <v>523</v>
@@ -7268,13 +7916,13 @@
     </row>
     <row r="102" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y102" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="Z102" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AA102" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AB102" s="4" t="s">
         <v>523</v>
@@ -7398,13 +8046,13 @@
     </row>
     <row r="107" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y107" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="Z107" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AA107" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AB107" s="4" t="s">
         <v>523</v>
@@ -7424,13 +8072,13 @@
     </row>
     <row r="108" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y108" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AA108" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AB108" s="4" t="s">
         <v>523</v>
@@ -7658,13 +8306,13 @@
     </row>
     <row r="117" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y117" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="Z117" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AA117" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AB117" s="4" t="s">
         <v>523</v>
@@ -7788,13 +8436,13 @@
     </row>
     <row r="122" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y122" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="Z122" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AA122" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AB122" s="4" t="s">
         <v>523</v>
@@ -9036,7 +9684,7 @@
     </row>
     <row r="170" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y170" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Z170" s="4" t="s">
         <v>508</v>
@@ -9322,7 +9970,7 @@
     </row>
     <row r="181" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y181" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Z181" s="4" t="s">
         <v>611</v>
@@ -9634,7 +10282,7 @@
     </row>
     <row r="193" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y193" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Z193" s="4" t="s">
         <v>619</v>
@@ -9660,13 +10308,13 @@
     </row>
     <row r="194" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y194" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Z194" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AA194" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="AB194" s="4" t="s">
         <v>523</v>
@@ -9764,13 +10412,13 @@
     </row>
     <row r="198" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y198" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="Z198" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AA198" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AB198" s="4" t="s">
         <v>523</v>
@@ -10258,13 +10906,13 @@
     </row>
     <row r="217" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y217" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="Z217" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AA217" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AB217" s="4" t="s">
         <v>523</v>
@@ -10440,13 +11088,13 @@
     </row>
     <row r="224" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y224" s="4" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Z224" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AA224" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AB224" s="4" t="s">
         <v>523</v>
@@ -10882,7 +11530,7 @@
     </row>
     <row r="241" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y241" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Z241" s="4" t="s">
         <v>660</v>
@@ -11012,7 +11660,7 @@
     </row>
     <row r="246" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y246" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Z246" s="4" t="s">
         <v>516</v>
@@ -11142,13 +11790,13 @@
     </row>
     <row r="251" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y251" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="Z251" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="AA251" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AB251" s="4" t="s">
         <v>523</v>
@@ -11324,7 +11972,7 @@
     </row>
     <row r="258" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y258" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="Z258" s="4" t="s">
         <v>662</v>
@@ -11376,7 +12024,7 @@
     </row>
     <row r="260" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y260" s="4" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Z260" s="4" t="s">
         <v>395</v>
@@ -11402,13 +12050,13 @@
     </row>
     <row r="261" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y261" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="Z261" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AA261" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AB261" s="4" t="s">
         <v>523</v>
@@ -11532,13 +12180,13 @@
     </row>
     <row r="266" spans="25:31" x14ac:dyDescent="0.25">
       <c r="Y266" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="Z266" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AA266" s="4" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AB266" s="4" t="s">
         <v>523</v>
@@ -11557,7 +12205,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ADj86evKYxL8JIFUDpCvFT8lNAV/DpEWA9KatKr9X5oxubBWNZ047OVdmPqvWEUm5Qa1YmduRbf57KzaERmrPg==" saltValue="pULzhSGe0/qGOXh4x3bKFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M467PmLTPswqCbLA4zNYSYnwI27XVV66ay/29MuMi97KEfcPpv4EQ68oQYB27u9J5ZHiQLVd4AaA60P9cxocew==" saltValue="yoR7+fRtV7qhU0Ct6oTozQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R15 J13:M19 N8:P14" name="Range1"/>
     <protectedRange sqref="F13:I19 D13:E16 D18:E19" name="Range1_1"/>
@@ -11587,35 +12235,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId4" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="V1" listFillRange="dropdownlist" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId4" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15FEE71B-8DC9-4B73-BEB2-DA5C926DFC8B}">
+          <x14:formula1>
+            <xm:f>Validation!$A$3:$A$1024</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11625,7 +12256,7 @@
   <dimension ref="B1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11662,7 +12293,7 @@
     </row>
     <row r="2" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -11675,9 +12306,9 @@
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
-      <c r="N2" s="11" t="e">
+      <c r="N2" s="11">
         <f>Characteristics!V2</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
@@ -11699,9 +12330,9 @@
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="str">
-        <f>Characteristics!V1</f>
-        <v/>
+      <c r="C4" s="28">
+        <f>Characteristics!C4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>1</v>
@@ -11732,7 +12363,7 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L6" s="5"/>
       <c r="N6" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>752</v>
@@ -11743,13 +12374,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -11771,13 +12402,13 @@
         <v>751</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>752</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -11785,7 +12416,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="57"/>
@@ -11814,9 +12445,9 @@
         <v>2</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>777</v>
-      </c>
-      <c r="D10" s="29"/>
+        <v>776</v>
+      </c>
+      <c r="D10" s="67"/>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
@@ -11839,9 +12470,9 @@
         <v>3</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="D11" s="32"/>
+        <v>777</v>
+      </c>
+      <c r="D11" s="68"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
@@ -11860,22 +12491,22 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="14" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="50" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D14" s="58" t="s">
+        <v>759</v>
+      </c>
+      <c r="E14" s="60" t="s">
         <v>760</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>761</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
@@ -11886,24 +12517,24 @@
       <c r="C15" s="50"/>
       <c r="D15" s="59"/>
       <c r="E15" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="H15" s="23" t="s">
+    </row>
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>765</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>766</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -11912,43 +12543,43 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wGMb3hhYton6r75Qe52wwb8acW/jl3hboqOHNNhlmv1Uc0zlCDoq5njXcX3F7w2NuERKdFLU6xXN3oOkSR6tfg==" saltValue="k2YKxN9mKM6/FZCsXCcYAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cqNJ2cRnSTh+XNBMgFzZQroJk5VBWdiPy9N0QOvvVe4YBm5vb2ZZB9WZOBRUZJpfGdjBQ3bwcIaCruIHWCE4fA==" saltValue="CjgBwuW9fem8jjQ7Vqhc5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -11998,53 +12629,21 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4106" r:id="rId5" name="Drop Down 10">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4107" r:id="rId6" name="Drop Down 11">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6930A5B0-A412-477E-86B6-92CF9F945DD0}">
+          <x14:formula1>
+            <xm:f>Validation!$D$3:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10 D11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12087,7 +12686,7 @@
     </row>
     <row r="2" spans="2:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -12100,9 +12699,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="11" t="e">
+      <c r="N2" s="11">
         <f>Characteristics!V2</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12124,9 +12723,9 @@
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="str">
-        <f>Characteristics!V1</f>
-        <v/>
+      <c r="C4" s="28">
+        <f>Characteristics!C4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>1</v>
@@ -12157,7 +12756,7 @@
         <v>751</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12168,10 +12767,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -12198,7 +12797,7 @@
         <v>751</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>752</v>
@@ -12235,11 +12834,11 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>783</v>
+      <c r="B10" s="15">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="57"/>
@@ -12265,11 +12864,11 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>784</v>
+      <c r="B11" s="15">
+        <v>1.2</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="57"/>
@@ -12433,7 +13032,7 @@
         <v>750</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
@@ -12459,9 +13058,9 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>779</v>
+      </c>
+      <c r="D20" s="69"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -12480,7 +13079,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="57"/>
@@ -12506,8 +13105,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yNbRGXri4b/CbezXqKAMQ5o1mKKnouyv18gHL2wKYThlmOe2hvSOKm4kU+LB5LAheZ90xs5Bhb5zHSHcCnRyuw==" saltValue="ljAAM6GdksaTrEhq6o0p4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xdYYHuJvVbqRoYUiR2cgrE4C3TtNzaSNEXnT0gFv6QmlsiF33nhdzjO/jYee4q69orebgC8ALq9mybRCgic1Rw==" saltValue="+5UVWmEjIwU4i8gyostxTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -12521,12 +13126,6 @@
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12691,29 +13290,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7189" r:id="rId11" name="Drop Down 21">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="7190" r:id="rId12" name="Drop Down 22">
+            <control shapeId="7190" r:id="rId11" name="Drop Down 22">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -12736,5 +13313,5683 @@
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9D192D7-7AC1-4C26-9AEF-70394FC678A1}">
+          <x14:formula1>
+            <xm:f>Validation!$D$3:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898F8EB6-9E2F-48B0-9E45-110A99BDC253}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E267"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="str">
+        <f>_WDyQKfAvY3V</f>
+        <v>NHWA Module 6</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>855</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>854</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="str">
+        <f>_oofyLUJJ6Vy</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="B3" s="64">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="64" t="str">
+        <f>_Xr12mI7VPn3</f>
+        <v>default</v>
+      </c>
+      <c r="D3" s="64" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+      <c r="E3" s="64" t="str">
+        <f>_true</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="str">
+        <f>_VGOzFKfSazN</f>
+        <v>Albania</v>
+      </c>
+      <c r="D4" s="64" t="str">
+        <f>_false</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="str">
+        <f>_mNa42CHbkO7</f>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="str">
+        <f>_VYVKdqiXo4b</f>
+        <v>American Samoa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="str">
+        <f>_Rmy6DbwekE1</f>
+        <v>Andorra</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="str">
+        <f>_jFOZHDZpjPL</f>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="str">
+        <f>_f4ZFD2aswys</f>
+        <v>Anguilla</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="str">
+        <f>_pfhvgmllA9M</f>
+        <v>Antigua and Barbuda</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="str">
+        <f>_AZdPnw0b1lm</f>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="str">
+        <f>_cWrL45je7mw</f>
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="str">
+        <f>_lKZR6UK0afN</f>
+        <v>Aruba</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="str">
+        <f>_LbWpsX1FJcC</f>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="str">
+        <f>_e9IoKRAkYLO</f>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="str">
+        <f>_ST86paYjRHP</f>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="str">
+        <f>_VbbSe7wgS9s</f>
+        <v>Bahamas</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="str">
+        <f>_T7tKHiW1Db1</f>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="str">
+        <f>_dNLjKwsVjod</f>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="str">
+        <f>_iNT35p3jsEM</f>
+        <v>Barbados</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="str">
+        <f>_Tr4i6jeDDqj</f>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="str">
+        <f>_KwgjnBBpe5b</f>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="str">
+        <f>_Nrnay4JA8Ga</f>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="str">
+        <f>_DzAOqCf0ots</f>
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="str">
+        <f>_ZzoDfdWIt6z</f>
+        <v>Bermuda</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="str">
+        <f>_JQ5qF3mRCMe</f>
+        <v>Bhutan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="str">
+        <f>_cpmmPDsQ3uG</f>
+        <v>Bolivia (Plurinational State of)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="str">
+        <f>_wyKC2eWRH3y</f>
+        <v>Bonaire, Saint Eustatius and Saba</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="str">
+        <f>_n8iofJiiX4T</f>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="str">
+        <f>_c82mDnhUQly</f>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="str">
+        <f>_sg5v6c9tCZ3</f>
+        <v>Bouvet Island</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="str">
+        <f>_dpcvWc01CeN</f>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="str">
+        <f>_PFAtPR87fHs</f>
+        <v>British Indian Ocean Territory</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="str">
+        <f>_u7H4MyT2Y0A</f>
+        <v>British Virgin Islands</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="str">
+        <f>_MJEntShoQVK</f>
+        <v>Brunei Darussalam</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="str">
+        <f>_AjeCGGb8H76</f>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="str">
+        <f>_hmZE3mVAZFf</f>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="str">
+        <f>_Xz7rnovuiOx</f>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="str">
+        <f>_bGWaeVBrOcc</f>
+        <v>Cabo Verde</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="str">
+        <f>_dscgTvwyCw8</f>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="str">
+        <f>_VPesUmegQpP</f>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="str">
+        <f>_AJBfDthkySs</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="str">
+        <f>_u3GOCB1Hu01</f>
+        <v>Cayman Islands</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="str">
+        <f>_ZcrjvJaYQb7</f>
+        <v>Central African Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="str">
+        <f>_tV0rWhHr9cj</f>
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="str">
+        <f>_zFInPJBZVbN</f>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="str">
+        <f>_q23bFLr2E5D</f>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="str">
+        <f>_myv7amOYTHn</f>
+        <v>China, Hong Kong SAR</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="str">
+        <f>_y582ESg0Vjo</f>
+        <v>China, Macao SAR</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="str">
+        <f>_lGN2n7pZ6Ua</f>
+        <v>China, Province of Taiwan</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="str">
+        <f>_a0Tb0vzKk1m</f>
+        <v>China: Province of Taiwan only</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="str">
+        <f>_XjHXb0aFH5w</f>
+        <v>Christmas Island</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="str">
+        <f>_AFIorEPU00q</f>
+        <v>Cocos (Keeling) Islands</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="str">
+        <f>_jXQq22U4Y2e</f>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="str">
+        <f>_RTdjvXHJdnH</f>
+        <v>Comoros</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="str">
+        <f>_shRXArPWh8H</f>
+        <v>Congo</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="str">
+        <f>_TldYkeCwb5r</f>
+        <v>Cook Islands</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="str">
+        <f>_pbH6bmcioGw</f>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="str">
+        <f>_lbMrRSBsXh3</f>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="str">
+        <f>_Zdl3ad7PayF</f>
+        <v>Cuba</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="str">
+        <f>_QSpLidCdqMU</f>
+        <v>Curaçao</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="str">
+        <f>_Mb9IYOFZYCv</f>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="str">
+        <f>_XKKI1hhyFxk</f>
+        <v>Czechia</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="str">
+        <f>_NhuW760cOQG</f>
+        <v>Czechoslovakia, Former</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="str">
+        <f>_WXGcnQWJ0Qd</f>
+        <v>Côte d'Ivoire</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="str">
+        <f>_OFXJXWnOG0R</f>
+        <v>Democratic People's Republic of Korea</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="str">
+        <f>_EDHO4qOyY88</f>
+        <v>Democratic Republic of the Congo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="str">
+        <f>_CCl7hAqlrmE</f>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="str">
+        <f>_Yg9QkNQk9p7</f>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="64" t="str">
+        <f>_s1mzBU7YOaZ</f>
+        <v>Dominica</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="64" t="str">
+        <f>_PpjdOoVUc7k</f>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="str">
+        <f>_LAPR4Iu2NVS</f>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="str">
+        <f>_JIr15Xt3EQn</f>
+        <v>Egypt</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="str">
+        <f>_Mk7P920hkBa</f>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="str">
+        <f>_Fi5lLVwe1Th</f>
+        <v>Equatorial Guinea</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="str">
+        <f>_vnbnnSZXGTv</f>
+        <v>Eritrea</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="64" t="str">
+        <f>_XeWqwCw9G5s</f>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="64" t="str">
+        <f>_G3thRWUQAX9</f>
+        <v>Eswatini</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="str">
+        <f>_zEYrsiNUGIo</f>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="str">
+        <f>_PRrdILmQQb3</f>
+        <v>Falkland Islands (Malvinas)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="str">
+        <f>_ngUSWwX0Oby</f>
+        <v>Faroe Islands</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="str">
+        <f>_sSIYRwB1r74</f>
+        <v>Fiji</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="str">
+        <f>_bnQX2QIuIY9</f>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="str">
+        <f>_VnTycSnraEY</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="str">
+        <f>_UJVEh0g7qOo</f>
+        <v>French Guiana</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="str">
+        <f>_QLERXr2o7IE</f>
+        <v>French Polynesia</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="str">
+        <f>_BLpPqpMtgQY</f>
+        <v>French Southern Territories</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="str">
+        <f>_EGLpIMSAWhx</f>
+        <v>Gabon</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="str">
+        <f>_z51rgcc5R8V</f>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="str">
+        <f>_fg8TSIHSGHX</f>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="str">
+        <f>_Ri2tb7LBVtP</f>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="str">
+        <f>_hgGOTFYZxMO</f>
+        <v>Germany, Former Democratic Republic</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="str">
+        <f>_E9G2aQpCs1A</f>
+        <v>Germany, Former Federal Republic</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="str">
+        <f>_Fq9qs6Kn6wN</f>
+        <v>Germany, West Berlin</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="str">
+        <f>_WC5rU5fLMzY</f>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="str">
+        <f>_BVzmce6DVeS</f>
+        <v>Gibraltar</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="str">
+        <f>_eyvitcZL4ex</f>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="str">
+        <f>_IZy3ESdFnp5</f>
+        <v>Greenland</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="str">
+        <f>_gg9DH7dvdeD</f>
+        <v>Grenada</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="str">
+        <f>_cRWrIpjzvVl</f>
+        <v>Guadeloupe</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="str">
+        <f>_q9u7nkNkuGy</f>
+        <v>Guam</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="str">
+        <f>_bhkJDAiqVKX</f>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="str">
+        <f>_NUkOvK4bnj2</f>
+        <v>Guernsey</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="str">
+        <f>_quQpOfBIDFC</f>
+        <v>Guinea</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="str">
+        <f>_G9o5ad4oJJX</f>
+        <v>Guinea-Bissau</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="str">
+        <f>_AUStREIxT4s</f>
+        <v>Guyana</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="str">
+        <f>_ipe4pT2TW7G</f>
+        <v>Haiti</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="str">
+        <f>_apVWLKfARpb</f>
+        <v>Heard Island and McDonald Islands</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="str">
+        <f>_jZOt27rWre8</f>
+        <v>Holy See</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="str">
+        <f>_mDSuyD9lOM5</f>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="str">
+        <f>_g49fuSiB623</f>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="str">
+        <f>_Bc3mYAhlY1a</f>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="str">
+        <f>_WApLDd37Yj2</f>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="str">
+        <f>_jVqoXv7rFns</f>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="str">
+        <f>_SsAjVE1S87E</f>
+        <v>Iran (Islamic Republic of)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="str">
+        <f>_fHXW26zg2U6</f>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="str">
+        <f>_uvTw0Kus5KZ</f>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="64" t="str">
+        <f>_ehNfKt5LpG9</f>
+        <v>Isle of Man</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="64" t="str">
+        <f>_XebDUbuPqVx</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="str">
+        <f>_ElwEWppmGgv</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="64" t="str">
+        <f>_x6DVvicRjYC</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="64" t="str">
+        <f>_JI5lagoUJR4</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="64" t="str">
+        <f>_XJscL6IuHpd</f>
+        <v>Jersey</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="64" t="str">
+        <f>_GWQBgBHdbbp</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="64" t="str">
+        <f>_ibGsqmiVkoU</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="64" t="str">
+        <f>_HfVjCurKxh2</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="64" t="str">
+        <f>_Nlv8oKkoAwp</f>
+        <v>Kiribati</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="64" t="str">
+        <f>_tnTRnfd2aVs</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="64" t="str">
+        <f>_tDFavWinSwr</f>
+        <v>Kyrgyzstan</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="64" t="str">
+        <f>_bvyjEfI0d2V</f>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="64" t="str">
+        <f>_gxi9jcBYyrL</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="64" t="str">
+        <f>_ACalScnrl2I</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="64" t="str">
+        <f>_D4JnxOsqwE4</f>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="64" t="str">
+        <f>_JEHwU064LAj</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="64" t="str">
+        <f>_zaluKz5Llai</f>
+        <v>Libya</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="64" t="str">
+        <f>_gMz0MxjZcEt</f>
+        <v>Liechtenstein</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="64" t="str">
+        <f>_T1irZBQ9gNW</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="64" t="str">
+        <f>_mmJUi0PpvGi</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="64" t="str">
+        <f>_bcy4159FETR</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="64" t="str">
+        <f>_G037PAPU5dO</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="64" t="str">
+        <f>_BmTVMvJHVBO</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="64" t="str">
+        <f>_FOJUXD6f6lB</f>
+        <v>Maldives</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="64" t="str">
+        <f>_EubjsxqlA4d</f>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="64" t="str">
+        <f>_TIhakAVsQwM</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="64" t="str">
+        <f>_Ajnw1b8m6eL</f>
+        <v>Marshall Islands</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="64" t="str">
+        <f>_v2B5AtYQV8H</f>
+        <v>Martinique</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="64" t="str">
+        <f>_XYpsN5j30R9</f>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="64" t="str">
+        <f>_EB4aSZN0eQr</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="64" t="str">
+        <f>_Bon3xyAAWKf</f>
+        <v>Mayotte</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="64" t="str">
+        <f>_KAUSOoBq5Ft</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="64" t="str">
+        <f>_lnvESj20mWZ</f>
+        <v>Micronesia (Federated States of)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="64" t="str">
+        <f>_cZ8823L0fLJ</f>
+        <v>Monaco</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="64" t="str">
+        <f>_IZSm5iPKkDg</f>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="64" t="str">
+        <f>_JX7HJfPfbog</f>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="64" t="str">
+        <f>_B4iWc3gcDcn</f>
+        <v>Montserrat</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="64" t="str">
+        <f>_WuQvgvXKamv</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="64" t="str">
+        <f>_Gan3VYicAWe</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="64" t="str">
+        <f>_YOL13ptz4ef</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="64" t="str">
+        <f>_rtLnlu4GUI2</f>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="64" t="str">
+        <f>_Pz0LCggcqES</f>
+        <v>Nauru</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="64" t="str">
+        <f>_pZZriU4sY0l</f>
+        <v>Nepal</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="64" t="str">
+        <f>_rEQqufy2KNi</f>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="64" t="str">
+        <f>_COs48yLdDvg</f>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="64" t="str">
+        <f>_jMGr96nGwHN</f>
+        <v>New Caledonia</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="64" t="str">
+        <f>_hG1CNbw8wSF</f>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="64" t="str">
+        <f>_wnuoeS9sVZR</f>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="64" t="str">
+        <f>_O0hWoXlHhIS</f>
+        <v>Niger</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="64" t="str">
+        <f>_I3NxIqG7bD4</f>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="64" t="str">
+        <f>_KqaTbKanCG3</f>
+        <v>Niue</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="64" t="str">
+        <f>_O7BGyJhV2Tc</f>
+        <v>Norfolk Island</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="64" t="str">
+        <f>_cfBaKMnsXd1</f>
+        <v>North Macedonia</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="64" t="str">
+        <f>_vPoFz9J1v6Y</f>
+        <v>Northern Mariana Islands</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="64" t="str">
+        <f>_oy494aJtjTB</f>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="64" t="str">
+        <f>_G8FCnT37gyb</f>
+        <v>Oman</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="64" t="str">
+        <f>_yzAMOdV0Pmr</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="64" t="str">
+        <f>_iFaKKDtb7nf</f>
+        <v>Palau</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="64" t="str">
+        <f>_wUBWZEHJm6Q</f>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="64" t="str">
+        <f>_Zav7juzGmEo</f>
+        <v>Papua New Guinea</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="64" t="str">
+        <f>_Wpzccx0vjIP</f>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="64" t="str">
+        <f>_vkXlj7ZPkGi</f>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="64" t="str">
+        <f>_QkOClVdLto1</f>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="64" t="str">
+        <f>_fHaKXfcKthe</f>
+        <v>Pitcairn</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="64" t="str">
+        <f>_wMTP4GblKr8</f>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="64" t="str">
+        <f>_PevCwH17M73</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="64" t="str">
+        <f>_w3IJVQhc8Rm</f>
+        <v>Puerto Rico</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="64" t="str">
+        <f>_jCtFxm8aADJ</f>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="64" t="str">
+        <f>_IbGbsybdeou</f>
+        <v>Republic of Korea</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="64" t="str">
+        <f>_yBqy4nxuOCA</f>
+        <v>Republic of Moldova</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="64" t="str">
+        <f>_ZRxKEGQmkWI</f>
+        <v>Rodrigues</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="64" t="str">
+        <f>_N9i1v07Ro0E</f>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="64" t="str">
+        <f>_i3v8r9XNls2</f>
+        <v>Russian Federation</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="64" t="str">
+        <f>_UlQiEogy3wG</f>
+        <v>Rwanda</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="64" t="str">
+        <f>_LTLHCOHyyWS</f>
+        <v>Ryu Kyu Islands</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="64" t="str">
+        <f>_VwqhqUCaMgk</f>
+        <v>Réunion</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="64" t="str">
+        <f>_GPyOOoIby8R</f>
+        <v>Saint Barthélemy</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="64" t="str">
+        <f>_aZ7Bm5L90rn</f>
+        <v>Saint Helena</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="64" t="str">
+        <f>_BlC8wOVHBlb</f>
+        <v>Saint Kitts and Nevis</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="64" t="str">
+        <f>_RyAd6laKg3U</f>
+        <v>Saint Lucia</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="64" t="str">
+        <f>_tSBEjAHKj9V</f>
+        <v>Saint Martin (French part)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="64" t="str">
+        <f>_HYEuE8zV74t</f>
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="64" t="str">
+        <f>_ZgsdoEiTlLq</f>
+        <v>Saint Vincent and the Grenadines</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="64" t="str">
+        <f>_hpXoMVtJpT3</f>
+        <v>Samoa</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="64" t="str">
+        <f>_SAsS1Kwc4iW</f>
+        <v>San Marino</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="64" t="str">
+        <f>_FNduj2N3e8s</f>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="64" t="str">
+        <f>_xB6nQN5Wtpg</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="64" t="str">
+        <f>_wj7iV08dvFq</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="64" t="str">
+        <f>_oroMC4mMzMq</f>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="64" t="str">
+        <f>_HizhPCC5Ps5</f>
+        <v>Serbia and Montenegro, Former</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="64" t="str">
+        <f>_wimH12ukPK5</f>
+        <v>Seychelles</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="64" t="str">
+        <f>_qbqrFLCJewu</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="64" t="str">
+        <f>_rb6V38jgfFc</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="64" t="str">
+        <f>_cCgL3J7Lsgn</f>
+        <v>Sint Maarten (Dutch part)</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="64" t="str">
+        <f>_RDiXMdNXg16</f>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="64" t="str">
+        <f>_PY4aKgi30fr</f>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="64" t="str">
+        <f>_FUieyovDec8</f>
+        <v>Solomon Islands</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="64" t="str">
+        <f>_oWNF4d3PK8C</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="64" t="str">
+        <f>_lVPoUAKCdmU</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="64" t="str">
+        <f>_z5ouOuycTPO</f>
+        <v>South Georgia and the South Sandwich Islands</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="64" t="str">
+        <f>_mhWSEv79IJW</f>
+        <v>South Sudan</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="64" t="str">
+        <f>_DVnpk4xiXGJ</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="64" t="str">
+        <f>_er7MPiN3tdH</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="64" t="str">
+        <f>_QqAzWHtJ8VC</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="64" t="str">
+        <f>_IjLnDADGraQ</f>
+        <v>Sudan (former)</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="64" t="str">
+        <f>_jkyBvNzcTLl</f>
+        <v>Suriname</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="64" t="str">
+        <f>_TWyMjVaaxmT</f>
+        <v>Svalbard and Jan Mayen</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="64" t="str">
+        <f>_IFAb1JUZ0Fz</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="64" t="str">
+        <f>_q2HqXV5OO3z</f>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="64" t="str">
+        <f>_HDN85xUGB65</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="64" t="str">
+        <f>_xb2ezJcUoSR</f>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="64" t="str">
+        <f>_vboedbUs1As</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="64" t="str">
+        <f>_pGLy2Zj2lVg</f>
+        <v>The former state union Serbia and Montenegro</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="64" t="str">
+        <f>_cJU4qStc9QT</f>
+        <v>Timor-Leste</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="64" t="str">
+        <f>_WtcZBCTspgM</f>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="64" t="str">
+        <f>_VMqDEughMuP</f>
+        <v>Tokelau</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="64" t="str">
+        <f>_zYQqFxQw5jj</f>
+        <v>Tonga</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="64" t="str">
+        <f>_fYeClLy8K2x</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="64" t="str">
+        <f>_pMukkUmnnkh</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="64" t="str">
+        <f>_eVEK7djdWqV</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="64" t="str">
+        <f>_HwqfuL9pQz5</f>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="64" t="str">
+        <f>_vg4b11FL2Gl</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="64" t="str">
+        <f>_GrU8zQv510v</f>
+        <v>Tuvalu</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="64" t="str">
+        <f>_M9HrCkIwaKy</f>
+        <v>US Virgin Islands</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="64" t="str">
+        <f>_wFkq5oB0dFS</f>
+        <v>USSR, Former</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="64" t="str">
+        <f>_SnYHrnchKjL</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="64" t="str">
+        <f>_VJrTuNXAg9G</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="64" t="str">
+        <f>_aNIrqpwcKXv</f>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="64" t="str">
+        <f>_Gnz4lqrVEMf</f>
+        <v>United Kingdom of Great Britain and Northern Irela</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="64" t="str">
+        <f>_TpDwlm2Spev</f>
+        <v>United Kingdom, England and Wales</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="64" t="str">
+        <f>_Q8De2VxoKXS</f>
+        <v>United Kingdom, Northern Ireland</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="64" t="str">
+        <f>_Gvox4WmLiYC</f>
+        <v>United Kingdom, Scotland</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="64" t="str">
+        <f>_S52uSY3lb8V</f>
+        <v>United Republic of Tanzania</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="64" t="str">
+        <f>_KOUhvjWIy6V</f>
+        <v>United States Minor Outlying Islands</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="64" t="str">
+        <f>_AYWCbVecRKQ</f>
+        <v>United States of America</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="64" t="str">
+        <f>_PJS910L8KtX</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="64" t="str">
+        <f>_kpFgAwwSjCZ</f>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="64" t="str">
+        <f>_xqjIL1cGrl1</f>
+        <v>Vanuatu</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="64" t="str">
+        <f>_fkrzFaeuYDn</f>
+        <v>Venezuela (Bolivarian Republic of)</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="64" t="str">
+        <f>_av3fkpFxEXj</f>
+        <v>Viet Nam</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="64" t="str">
+        <f>_eVp1pvRfPKS</f>
+        <v>Wallis and Futuna</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="64" t="str">
+        <f>_KrU8C1YTdao</f>
+        <v>West Bank</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="64" t="str">
+        <f>_juBxu3AprlM</f>
+        <v>West Bank and Gaza Strip</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="64" t="str">
+        <f>_PvrMV4NjbtR</f>
+        <v>Western Sahara</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="64" t="str">
+        <f>_HX7fBSMCCbL</f>
+        <v>Yemen</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="64" t="str">
+        <f>_fIlPGTXBCUm</f>
+        <v>Yugoslavia, Former</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="64" t="str">
+        <f>_gb7vWtO7Wjp</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="64" t="str">
+        <f>_buSEeeViTo3</f>
+        <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="64" t="str">
+        <f>_Adzexk8xbzD</f>
+        <v>Åland Islands</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="u67yhxHPxZJv1h3uNlQJpUYM3c/3dNy0dZan3ofJ/KXiR/CeNZyIZA5lw/sFzM9kNajfAZHahjiOLAY6Hlbpdw==" saltValue="YPQRDE4pQAkEorW5KkiR+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897C2BEE-4D62-4D4A-B1AA-232B1152B2CE}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F351"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="80" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>999</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>998</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>997</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>996</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>995</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>754</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>994</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>993</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>991</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>990</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>989</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>988</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>987</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>986</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>985</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>984</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>983</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>982</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>981</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>980</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>979</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>978</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>977</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>976</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>975</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>974</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>973</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>972</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>971</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>970</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>969</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>968</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>967</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>966</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>965</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>964</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>962</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>961</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
+        <v>960</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>959</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>957</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>955</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>954</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>953</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>952</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>950</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>948</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>946</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>945</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>944</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>943</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>940</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>938</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>934</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>933</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>929</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>927</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>926</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>924</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>920</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>918</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>916</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>914</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>912</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>904</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>902</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>900</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>898</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>897</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>895</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
+        <v>893</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
+        <v>890</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>888</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="64" t="s">
+        <v>887</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="64" t="s">
+        <v>886</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="s">
+        <v>884</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
+        <v>882</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
+        <v>881</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="64" t="s">
+        <v>877</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="64" t="s">
+        <v>875</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="64" t="s">
+        <v>874</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>873</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
+        <v>871</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="s">
+        <v>869</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>867</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>865</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>864</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C108" s="64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C111" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C112" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="s">
+        <v>784</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C113" s="64" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C114" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
+        <v>787</v>
+      </c>
+      <c r="B115" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C115" s="64" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C116" s="64" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="B117" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C117" s="64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="B118" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="B122" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C122" s="64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="B125" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C125" s="64" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C126" s="64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B128" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="B129" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="B130" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C130" s="64" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="B131" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C131" s="64" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="64" t="s">
+        <v>792</v>
+      </c>
+      <c r="B132" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C132" s="64" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="B133" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C133" s="64" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="B134" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="B135" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C135" s="64" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C136" s="64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C137" s="64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C138" s="64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="B139" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C139" s="64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="B140" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C140" s="64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="B141" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C142" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="B143" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C143" s="64" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="B144" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C144" s="64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="B145" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C145" s="64" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="B146" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C146" s="64" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C147" s="64" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="64" t="s">
+        <v>674</v>
+      </c>
+      <c r="B148" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C148" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C149" s="64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="B150" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C150" s="64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B151" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C151" s="64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C152" s="64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B153" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C153" s="64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B154" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C154" s="64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B155" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C155" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B156" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C156" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C157" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C158" s="64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B159" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C159" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B160" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C160" s="64" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C161" s="64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="B162" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C162" s="64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="B163" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C163" s="64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="B164" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C164" s="64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="B165" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C165" s="64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="B166" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C166" s="64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="B167" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C167" s="64" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="B168" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C168" s="64" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="B169" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C169" s="64" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C170" s="64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C171" s="64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="B172" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C172" s="64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="B173" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C173" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="B174" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C174" s="64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="B175" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C175" s="64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="B176" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C176" s="64" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="B177" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C177" s="64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="B178" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C178" s="64" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="B179" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C179" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="B180" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C180" s="64" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C181" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="B182" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C182" s="64" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="B183" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C183" s="64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B184" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C184" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="B185" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C185" s="64" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B186" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C186" s="64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B187" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C187" s="64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B188" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C188" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="B189" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C189" s="64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="64" t="s">
+        <v>811</v>
+      </c>
+      <c r="B190" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C190" s="64" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="64" t="s">
+        <v>814</v>
+      </c>
+      <c r="B191" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C191" s="64" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="B192" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C192" s="64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B193" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C193" s="64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="B194" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C194" s="64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="64" t="s">
+        <v>676</v>
+      </c>
+      <c r="B195" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C195" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="64" t="s">
+        <v>678</v>
+      </c>
+      <c r="B196" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C196" s="64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B197" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C197" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B198" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C198" s="64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="B199" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C199" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="64" t="s">
+        <v>817</v>
+      </c>
+      <c r="B200" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C200" s="64" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="B201" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C201" s="64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="B202" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C202" s="64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B203" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C203" s="64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="B204" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C204" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="64" t="s">
+        <v>820</v>
+      </c>
+      <c r="B205" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C205" s="64" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B206" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C206" s="64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="B207" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C207" s="64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B208" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C208" s="64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="64" t="s">
+        <v>708</v>
+      </c>
+      <c r="B209" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C209" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="B210" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C210" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="B211" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C211" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="64" t="s">
+        <v>710</v>
+      </c>
+      <c r="B212" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C212" s="64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="B213" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C213" s="64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="B214" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C214" s="64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B215" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C215" s="64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B216" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C216" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="B217" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C217" s="64" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="B218" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C218" s="64" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="B219" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C219" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="B220" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C220" s="64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B221" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C221" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B222" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C222" s="64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="B223" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C223" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="B224" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C224" s="64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C225" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="B226" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C226" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="B227" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C227" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="B228" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C228" s="64" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="B229" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C229" s="64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B230" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C230" s="64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="B231" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C231" s="64" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B232" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C232" s="64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="B233" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C233" s="64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="B234" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C234" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="64" t="s">
+        <v>718</v>
+      </c>
+      <c r="B235" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C235" s="64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="B236" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C236" s="64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="B237" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C237" s="64" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="B238" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C238" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B239" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C239" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="B240" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C240" s="64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B241" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C241" s="64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="B242" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C242" s="64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="B243" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C243" s="64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="B244" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C244" s="64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="64" t="s">
+        <v>600</v>
+      </c>
+      <c r="B245" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C245" s="64" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="B246" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C246" s="64" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="B247" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C247" s="64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B248" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C248" s="64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="B249" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C249" s="64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B250" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C250" s="64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="B251" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C251" s="64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="B252" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C252" s="64" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="B253" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C253" s="64" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="B254" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C254" s="64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="B255" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C255" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="B256" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C256" s="64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="B257" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C257" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="B258" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C258" s="64" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="B259" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C259" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="B260" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C260" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="B261" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C261" s="64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="B262" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C262" s="64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="B263" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C263" s="64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="B264" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C264" s="64" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="B265" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C265" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="B266" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C266" s="64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="B267" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C267" s="64" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="B268" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C268" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="B269" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C269" s="64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="B270" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C270" s="64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="B271" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C271" s="64" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="B272" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C272" s="64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="B273" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C273" s="64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B274" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C274" s="64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="B275" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C275" s="64" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="B276" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C276" s="64" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="64" t="s">
+        <v>826</v>
+      </c>
+      <c r="B277" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C277" s="64" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="64" t="s">
+        <v>625</v>
+      </c>
+      <c r="B278" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C278" s="64" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B279" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C279" s="64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B280" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C280" s="64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="64" t="s">
+        <v>829</v>
+      </c>
+      <c r="B281" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C281" s="64" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="64" t="s">
+        <v>628</v>
+      </c>
+      <c r="B282" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C282" s="64" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B283" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C283" s="64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="64" t="s">
+        <v>735</v>
+      </c>
+      <c r="B284" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C284" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="B285" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C285" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B286" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C286" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="B287" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C287" s="64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B288" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C288" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="B289" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C289" s="64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="64" t="s">
+        <v>631</v>
+      </c>
+      <c r="B290" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C290" s="64" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="B291" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C291" s="64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="B292" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C292" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="64" t="s">
+        <v>737</v>
+      </c>
+      <c r="B293" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C293" s="64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="B294" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C294" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="B295" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C295" s="64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="B296" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C296" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="B297" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C297" s="64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="B298" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C298" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B299" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C299" s="64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="64" t="s">
+        <v>832</v>
+      </c>
+      <c r="B300" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C300" s="64" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B301" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C301" s="64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="B302" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C302" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="B303" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C303" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B304" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C304" s="64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="64" t="s">
+        <v>637</v>
+      </c>
+      <c r="B305" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C305" s="64" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B306" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C306" s="64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="64" t="s">
+        <v>835</v>
+      </c>
+      <c r="B307" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C307" s="64" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="B308" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C308" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="B309" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C309" s="64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="B310" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C310" s="64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="B311" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C311" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="B312" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C312" s="64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="B313" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C313" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="B314" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C314" s="64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B315" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C315" s="64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="64" t="s">
+        <v>643</v>
+      </c>
+      <c r="B316" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C316" s="64" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="64" t="s">
+        <v>741</v>
+      </c>
+      <c r="B317" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C317" s="64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="B318" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C318" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="B319" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C319" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="B320" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C320" s="64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="B321" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C321" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="64" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C322" s="64" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="B323" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C323" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="64" t="s">
+        <v>660</v>
+      </c>
+      <c r="B324" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C324" s="64" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="64" t="s">
+        <v>658</v>
+      </c>
+      <c r="B325" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C325" s="64" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="B326" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C326" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="B327" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C327" s="64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B328" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C328" s="64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="B329" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C329" s="64" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="B330" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C330" s="64" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="64" t="s">
+        <v>652</v>
+      </c>
+      <c r="B331" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C331" s="64" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="64" t="s">
+        <v>655</v>
+      </c>
+      <c r="B332" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C332" s="64" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B333" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C333" s="64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="64" t="s">
+        <v>840</v>
+      </c>
+      <c r="B334" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C334" s="64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="B335" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C335" s="64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B336" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C336" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="B337" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C337" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="B338" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C338" s="64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="B339" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C339" s="64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="64" t="s">
+        <v>747</v>
+      </c>
+      <c r="B340" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C340" s="64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="64" t="s">
+        <v>662</v>
+      </c>
+      <c r="B341" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C341" s="64" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="B342" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C342" s="64" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B343" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C343" s="64" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="B344" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C344" s="64" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B345" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C345" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="B346" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C346" s="64" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B347" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C347" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B348" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C348" s="64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="64" t="s">
+        <v>848</v>
+      </c>
+      <c r="B349" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C349" s="64" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="64" t="s">
+        <v>860</v>
+      </c>
+      <c r="B350" s="64" t="s">
+        <v>857</v>
+      </c>
+      <c r="C350" s="64" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="64" t="s">
+        <v>858</v>
+      </c>
+      <c r="B351" s="64" t="s">
+        <v>857</v>
+      </c>
+      <c r="C351" s="64" t="s">
+        <v>856</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3JXf1kR2obFjQOF8ytGy+CCE7ygA8R/BB3lXUxrQ8q/bGHy03autTfLs7I8guh1Z9aEQrmYAk0RnFk3sg2Ciyw==" saltValue="WdUFffvtotBGIBQ870m/Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/templates/NHWA_Module_6.xlsx
+++ b/public/templates/NHWA_Module_6.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62121DB5-AEC5-4941-B81E-1D9F6073BDF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D8B527-46D7-4B37-9F39-ABE85531EC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4tps3eM7w0MuLk1WECA0XtxVoifUcfrYaG5LYzk7bJhnOsz91X7nHsFxL9STx/VqAYrI6lCpyg62VGbwMgY2YA==" workbookSaltValue="b0zOXw/4aTdQ8ytI0Z30rw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characteristics" sheetId="1" r:id="rId1"/>
@@ -3827,6 +3827,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3861,18 +3871,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3880,22 +3886,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4297,8 +4297,8 @@
     <col min="19" max="19" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="33" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" style="4" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -4306,20 +4306,20 @@
       <c r="A1" s="35" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -4344,20 +4344,20 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="47" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4527,13 +4527,13 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>768</v>
       </c>
       <c r="E6" s="31"/>
@@ -4547,11 +4547,11 @@
       <c r="M6" s="2"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
       <c r="Y6" s="4" t="s">
         <v>108</v>
       </c>
@@ -4578,9 +4578,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="31"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -4762,22 +4762,22 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="50" t="s">
         <v>767</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="51" t="s">
         <v>769</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="42" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="45" t="s">
         <v>770</v>
       </c>
       <c r="N11" s="13"/>
@@ -4813,9 +4813,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="20" t="s">
         <v>755</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="H12" s="20" t="s">
         <v>766</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="46"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -4921,7 +4921,10 @@
       <c r="I14" s="22"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:P31" ca="1" si="2">P15+1</f>
+        <v>2020</v>
+      </c>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
@@ -4966,7 +4969,10 @@
       <c r="I15" s="22"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2019</v>
+      </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
@@ -5009,6 +5015,10 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
+      <c r="P16" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2018</v>
+      </c>
       <c r="Y16" s="34" t="s">
         <v>300</v>
       </c>
@@ -5047,6 +5057,10 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
+      <c r="P17" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
       <c r="Y17" s="34" t="s">
         <v>88</v>
       </c>
@@ -5085,6 +5099,10 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
+      <c r="P18" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
       <c r="Y18" s="34" t="s">
         <v>157</v>
       </c>
@@ -5123,6 +5141,10 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
+      <c r="P19" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
       <c r="Y19" s="34" t="s">
         <v>55</v>
       </c>
@@ -5149,6 +5171,10 @@
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P20" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
       <c r="Y20" s="34" t="s">
         <v>112</v>
       </c>
@@ -5175,6 +5201,10 @@
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P21" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
       <c r="Y21" s="34" t="s">
         <v>113</v>
       </c>
@@ -5201,6 +5231,10 @@
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P22" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
       <c r="Y22" s="34" t="s">
         <v>56</v>
       </c>
@@ -5227,6 +5261,10 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P23" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
       <c r="Y23" s="34" t="s">
         <v>13</v>
       </c>
@@ -5253,6 +5291,10 @@
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P24" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2010</v>
+      </c>
       <c r="Y24" s="34" t="s">
         <v>530</v>
       </c>
@@ -5279,6 +5321,10 @@
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
       <c r="Y25" s="34" t="s">
         <v>158</v>
       </c>
@@ -5305,6 +5351,10 @@
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P26" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
       <c r="Y26" s="34" t="s">
         <v>57</v>
       </c>
@@ -5331,6 +5381,10 @@
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P27" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
       <c r="Y27" s="34" t="s">
         <v>533</v>
       </c>
@@ -5357,6 +5411,10 @@
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P28" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
       <c r="Y28" s="34" t="s">
         <v>114</v>
       </c>
@@ -5383,6 +5441,10 @@
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P29" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2005</v>
+      </c>
       <c r="Y29" s="34" t="s">
         <v>15</v>
       </c>
@@ -5409,6 +5471,10 @@
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P30" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
       <c r="Y30" s="34" t="s">
         <v>778</v>
       </c>
@@ -5435,6 +5501,10 @@
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P31" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2003</v>
+      </c>
       <c r="Y31" s="34" t="s">
         <v>58</v>
       </c>
@@ -5461,6 +5531,10 @@
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="P32" s="4">
+        <f ca="1">P33+1</f>
+        <v>2002</v>
+      </c>
       <c r="Y32" s="34" t="s">
         <v>781</v>
       </c>
@@ -5486,7 +5560,11 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="33" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:31" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <f ca="1">YEAR(TODAY())-20</f>
+        <v>2001</v>
+      </c>
       <c r="Y33" s="34" t="s">
         <v>536</v>
       </c>
@@ -5512,7 +5590,7 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="34" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y34" s="34" t="s">
         <v>169</v>
       </c>
@@ -5538,7 +5616,7 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="35" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y35" s="34" t="s">
         <v>115</v>
       </c>
@@ -5564,7 +5642,7 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="36" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y36" s="34" t="s">
         <v>16</v>
       </c>
@@ -5590,7 +5668,7 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="37" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y37" s="34" t="s">
         <v>17</v>
       </c>
@@ -5616,7 +5694,7 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="38" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y38" s="34" t="s">
         <v>209</v>
       </c>
@@ -5642,7 +5720,7 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="39" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y39" s="34" t="s">
         <v>170</v>
       </c>
@@ -5668,7 +5746,7 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="40" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y40" s="34" t="s">
         <v>18</v>
       </c>
@@ -5694,7 +5772,7 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="41" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y41" s="34" t="s">
         <v>59</v>
       </c>
@@ -5720,7 +5798,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="42" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y42" s="34" t="s">
         <v>539</v>
       </c>
@@ -5746,7 +5824,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="43" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y43" s="34" t="s">
         <v>19</v>
       </c>
@@ -5772,7 +5850,7 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="44" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y44" s="34" t="s">
         <v>20</v>
       </c>
@@ -5798,7 +5876,7 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="45" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y45" s="34" t="s">
         <v>60</v>
       </c>
@@ -5824,7 +5902,7 @@
         <v>Chile</v>
       </c>
     </row>
-    <row r="46" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y46" s="34" t="s">
         <v>699</v>
       </c>
@@ -5850,7 +5928,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="47" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y47" s="34" t="s">
         <v>784</v>
       </c>
@@ -5876,7 +5954,7 @@
         <v>China, Hong Kong SAR</v>
       </c>
     </row>
-    <row r="48" spans="25:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:31" x14ac:dyDescent="0.25">
       <c r="Y48" s="34" t="s">
         <v>785</v>
       </c>
@@ -6455,7 +6533,7 @@
         <v>415</v>
       </c>
       <c r="AC67" s="4">
-        <f t="shared" ref="AC67:AC130" si="2">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
+        <f t="shared" ref="AC67:AC130" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD67" s="4">
@@ -6481,7 +6559,7 @@
         <v>369</v>
       </c>
       <c r="AC68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD68" s="4">
@@ -6507,7 +6585,7 @@
         <v>297</v>
       </c>
       <c r="AC69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD69" s="4">
@@ -6533,7 +6611,7 @@
         <v>297</v>
       </c>
       <c r="AC70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD70" s="4">
@@ -6559,7 +6637,7 @@
         <v>297</v>
       </c>
       <c r="AC71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD71" s="4">
@@ -6585,7 +6663,7 @@
         <v>369</v>
       </c>
       <c r="AC72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD72" s="4">
@@ -6611,7 +6689,7 @@
         <v>297</v>
       </c>
       <c r="AC73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD73" s="4">
@@ -6637,7 +6715,7 @@
         <v>199</v>
       </c>
       <c r="AC74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD74" s="4">
@@ -6663,7 +6741,7 @@
         <v>199</v>
       </c>
       <c r="AC75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD75" s="4">
@@ -6689,7 +6767,7 @@
         <v>415</v>
       </c>
       <c r="AC76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD76" s="4">
@@ -6715,7 +6793,7 @@
         <v>199</v>
       </c>
       <c r="AC77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD77" s="4">
@@ -6741,7 +6819,7 @@
         <v>199</v>
       </c>
       <c r="AC78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD78" s="4">
@@ -6767,7 +6845,7 @@
         <v>523</v>
       </c>
       <c r="AC79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD79" s="4">
@@ -6793,7 +6871,7 @@
         <v>523</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD80" s="4">
@@ -6819,7 +6897,7 @@
         <v>694</v>
       </c>
       <c r="AC81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD81" s="4">
@@ -6845,7 +6923,7 @@
         <v>415</v>
       </c>
       <c r="AC82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD82" s="4">
@@ -6871,7 +6949,7 @@
         <v>415</v>
       </c>
       <c r="AC83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD83" s="4">
@@ -6897,7 +6975,7 @@
         <v>523</v>
       </c>
       <c r="AC84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD84" s="4">
@@ -6923,7 +7001,7 @@
         <v>694</v>
       </c>
       <c r="AC85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD85" s="4">
@@ -6949,7 +7027,7 @@
         <v>523</v>
       </c>
       <c r="AC86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD86" s="4">
@@ -6975,7 +7053,7 @@
         <v>199</v>
       </c>
       <c r="AC87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD87" s="4">
@@ -7001,7 +7079,7 @@
         <v>199</v>
       </c>
       <c r="AC88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD88" s="4">
@@ -7027,7 +7105,7 @@
         <v>415</v>
       </c>
       <c r="AC89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD89" s="4">
@@ -7053,7 +7131,7 @@
         <v>415</v>
       </c>
       <c r="AC90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD90" s="4">
@@ -7079,7 +7157,7 @@
         <v>523</v>
       </c>
       <c r="AC91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD91" s="4">
@@ -7105,7 +7183,7 @@
         <v>523</v>
       </c>
       <c r="AC92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD92" s="4">
@@ -7131,7 +7209,7 @@
         <v>523</v>
       </c>
       <c r="AC93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD93" s="4">
@@ -7157,7 +7235,7 @@
         <v>199</v>
       </c>
       <c r="AC94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD94" s="4">
@@ -7183,7 +7261,7 @@
         <v>523</v>
       </c>
       <c r="AC95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD95" s="4">
@@ -7209,7 +7287,7 @@
         <v>415</v>
       </c>
       <c r="AC96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD96" s="4">
@@ -7235,7 +7313,7 @@
         <v>415</v>
       </c>
       <c r="AC97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD97" s="4">
@@ -7261,7 +7339,7 @@
         <v>297</v>
       </c>
       <c r="AC98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD98" s="4">
@@ -7287,7 +7365,7 @@
         <v>523</v>
       </c>
       <c r="AC99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD99" s="4">
@@ -7313,7 +7391,7 @@
         <v>694</v>
       </c>
       <c r="AC100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD100" s="4">
@@ -7339,7 +7417,7 @@
         <v>297</v>
       </c>
       <c r="AC101" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD101" s="4">
@@ -7365,7 +7443,7 @@
         <v>523</v>
       </c>
       <c r="AC102" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD102" s="4">
@@ -7391,7 +7469,7 @@
         <v>199</v>
       </c>
       <c r="AC103" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD103" s="4">
@@ -7417,7 +7495,7 @@
         <v>199</v>
       </c>
       <c r="AC104" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD104" s="4">
@@ -7443,7 +7521,7 @@
         <v>297</v>
       </c>
       <c r="AC105" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD105" s="4">
@@ -7469,7 +7547,7 @@
         <v>297</v>
       </c>
       <c r="AC106" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD106" s="4">
@@ -7495,7 +7573,7 @@
         <v>523</v>
       </c>
       <c r="AC107" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD107" s="4">
@@ -7521,7 +7599,7 @@
         <v>523</v>
       </c>
       <c r="AC108" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD108" s="4">
@@ -7547,7 +7625,7 @@
         <v>297</v>
       </c>
       <c r="AC109" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD109" s="4">
@@ -7573,7 +7651,7 @@
         <v>415</v>
       </c>
       <c r="AC110" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD110" s="4">
@@ -7599,7 +7677,7 @@
         <v>415</v>
       </c>
       <c r="AC111" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD111" s="4">
@@ -7625,7 +7703,7 @@
         <v>671</v>
       </c>
       <c r="AC112" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD112" s="4">
@@ -7651,7 +7729,7 @@
         <v>671</v>
       </c>
       <c r="AC113" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD113" s="4">
@@ -7677,7 +7755,7 @@
         <v>369</v>
       </c>
       <c r="AC114" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD114" s="4">
@@ -7703,7 +7781,7 @@
         <v>369</v>
       </c>
       <c r="AC115" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD115" s="4">
@@ -7729,7 +7807,7 @@
         <v>415</v>
       </c>
       <c r="AC116" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD116" s="4">
@@ -7755,7 +7833,7 @@
         <v>523</v>
       </c>
       <c r="AC117" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD117" s="4">
@@ -7781,7 +7859,7 @@
         <v>415</v>
       </c>
       <c r="AC118" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD118" s="4">
@@ -7807,7 +7885,7 @@
         <v>415</v>
       </c>
       <c r="AC119" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD119" s="4">
@@ -7833,7 +7911,7 @@
         <v>297</v>
       </c>
       <c r="AC120" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD120" s="4">
@@ -7859,7 +7937,7 @@
         <v>694</v>
       </c>
       <c r="AC121" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD121" s="4">
@@ -7885,7 +7963,7 @@
         <v>523</v>
       </c>
       <c r="AC122" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD122" s="4">
@@ -7911,7 +7989,7 @@
         <v>369</v>
       </c>
       <c r="AC123" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD123" s="4">
@@ -7937,7 +8015,7 @@
         <v>415</v>
       </c>
       <c r="AC124" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD124" s="4">
@@ -7963,7 +8041,7 @@
         <v>199</v>
       </c>
       <c r="AC125" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD125" s="4">
@@ -7989,7 +8067,7 @@
         <v>694</v>
       </c>
       <c r="AC126" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD126" s="4">
@@ -8015,7 +8093,7 @@
         <v>369</v>
       </c>
       <c r="AC127" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD127" s="4">
@@ -8041,7 +8119,7 @@
         <v>415</v>
       </c>
       <c r="AC128" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD128" s="4">
@@ -8067,7 +8145,7 @@
         <v>694</v>
       </c>
       <c r="AC129" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD129" s="4">
@@ -8093,7 +8171,7 @@
         <v>415</v>
       </c>
       <c r="AC130" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD130" s="4">
@@ -8119,7 +8197,7 @@
         <v>369</v>
       </c>
       <c r="AC131" s="4">
-        <f t="shared" ref="AC131:AC194" si="3">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
+        <f t="shared" ref="AC131:AC194" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD131" s="4">
@@ -8145,7 +8223,7 @@
         <v>199</v>
       </c>
       <c r="AC132" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD132" s="4">
@@ -8171,7 +8249,7 @@
         <v>199</v>
       </c>
       <c r="AC133" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD133" s="4">
@@ -8197,7 +8275,7 @@
         <v>369</v>
       </c>
       <c r="AC134" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD134" s="4">
@@ -8223,7 +8301,7 @@
         <v>523</v>
       </c>
       <c r="AC135" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD135" s="4">
@@ -8249,7 +8327,7 @@
         <v>415</v>
       </c>
       <c r="AC136" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD136" s="4">
@@ -8275,7 +8353,7 @@
         <v>415</v>
       </c>
       <c r="AC137" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD137" s="4">
@@ -8301,7 +8379,7 @@
         <v>199</v>
       </c>
       <c r="AC138" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD138" s="4">
@@ -8327,7 +8405,7 @@
         <v>199</v>
       </c>
       <c r="AC139" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD139" s="4">
@@ -8353,7 +8431,7 @@
         <v>694</v>
       </c>
       <c r="AC140" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD140" s="4">
@@ -8379,7 +8457,7 @@
         <v>671</v>
       </c>
       <c r="AC141" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD141" s="4">
@@ -8405,7 +8483,7 @@
         <v>199</v>
       </c>
       <c r="AC142" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD142" s="4">
@@ -8431,7 +8509,7 @@
         <v>415</v>
       </c>
       <c r="AC143" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD143" s="4">
@@ -8457,7 +8535,7 @@
         <v>694</v>
       </c>
       <c r="AC144" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD144" s="4">
@@ -8483,7 +8561,7 @@
         <v>523</v>
       </c>
       <c r="AC145" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD145" s="4">
@@ -8509,7 +8587,7 @@
         <v>199</v>
       </c>
       <c r="AC146" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD146" s="4">
@@ -8535,7 +8613,7 @@
         <v>199</v>
       </c>
       <c r="AC147" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD147" s="4">
@@ -8561,7 +8639,7 @@
         <v>523</v>
       </c>
       <c r="AC148" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD148" s="4">
@@ -8587,7 +8665,7 @@
         <v>297</v>
       </c>
       <c r="AC149" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD149" s="4">
@@ -8613,7 +8691,7 @@
         <v>694</v>
       </c>
       <c r="AC150" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD150" s="4">
@@ -8639,7 +8717,7 @@
         <v>415</v>
       </c>
       <c r="AC151" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD151" s="4">
@@ -8665,7 +8743,7 @@
         <v>694</v>
       </c>
       <c r="AC152" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD152" s="4">
@@ -8691,7 +8769,7 @@
         <v>415</v>
       </c>
       <c r="AC153" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD153" s="4">
@@ -8717,7 +8795,7 @@
         <v>297</v>
       </c>
       <c r="AC154" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD154" s="4">
@@ -8743,7 +8821,7 @@
         <v>369</v>
       </c>
       <c r="AC155" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD155" s="4">
@@ -8769,7 +8847,7 @@
         <v>199</v>
       </c>
       <c r="AC156" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD156" s="4">
@@ -8795,7 +8873,7 @@
         <v>671</v>
       </c>
       <c r="AC157" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD157" s="4">
@@ -8821,7 +8899,7 @@
         <v>199</v>
       </c>
       <c r="AC158" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD158" s="4">
@@ -8847,7 +8925,7 @@
         <v>694</v>
       </c>
       <c r="AC159" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD159" s="4">
@@ -8873,7 +8951,7 @@
         <v>671</v>
       </c>
       <c r="AC160" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD160" s="4">
@@ -8899,7 +8977,7 @@
         <v>415</v>
       </c>
       <c r="AC161" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD161" s="4">
@@ -8925,7 +9003,7 @@
         <v>523</v>
       </c>
       <c r="AC162" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD162" s="4">
@@ -8951,7 +9029,7 @@
         <v>694</v>
       </c>
       <c r="AC163" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD163" s="4">
@@ -8977,7 +9055,7 @@
         <v>694</v>
       </c>
       <c r="AC164" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD164" s="4">
@@ -9003,7 +9081,7 @@
         <v>297</v>
       </c>
       <c r="AC165" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD165" s="4">
@@ -9029,7 +9107,7 @@
         <v>199</v>
       </c>
       <c r="AC166" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD166" s="4">
@@ -9055,7 +9133,7 @@
         <v>199</v>
       </c>
       <c r="AC167" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD167" s="4">
@@ -9081,7 +9159,7 @@
         <v>694</v>
       </c>
       <c r="AC168" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD168" s="4">
@@ -9107,7 +9185,7 @@
         <v>523</v>
       </c>
       <c r="AC169" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD169" s="4">
@@ -9133,7 +9211,7 @@
         <v>415</v>
       </c>
       <c r="AC170" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD170" s="4">
@@ -9159,7 +9237,7 @@
         <v>694</v>
       </c>
       <c r="AC171" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD171" s="4">
@@ -9185,7 +9263,7 @@
         <v>415</v>
       </c>
       <c r="AC172" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD172" s="4">
@@ -9211,7 +9289,7 @@
         <v>369</v>
       </c>
       <c r="AC173" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD173" s="4">
@@ -9237,7 +9315,7 @@
         <v>369</v>
       </c>
       <c r="AC174" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD174" s="4">
@@ -9263,7 +9341,7 @@
         <v>694</v>
       </c>
       <c r="AC175" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD175" s="4">
@@ -9289,7 +9367,7 @@
         <v>297</v>
       </c>
       <c r="AC176" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD176" s="4">
@@ -9315,7 +9393,7 @@
         <v>694</v>
       </c>
       <c r="AC177" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD177" s="4">
@@ -9341,7 +9419,7 @@
         <v>297</v>
       </c>
       <c r="AC178" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD178" s="4">
@@ -9367,7 +9445,7 @@
         <v>297</v>
       </c>
       <c r="AC179" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD179" s="4">
@@ -9393,7 +9471,7 @@
         <v>694</v>
       </c>
       <c r="AC180" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD180" s="4">
@@ -9419,7 +9497,7 @@
         <v>523</v>
       </c>
       <c r="AC181" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD181" s="4">
@@ -9445,7 +9523,7 @@
         <v>415</v>
       </c>
       <c r="AC182" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD182" s="4">
@@ -9471,7 +9549,7 @@
         <v>415</v>
       </c>
       <c r="AC183" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD183" s="4">
@@ -9497,7 +9575,7 @@
         <v>297</v>
       </c>
       <c r="AC184" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD184" s="4">
@@ -9523,7 +9601,7 @@
         <v>369</v>
       </c>
       <c r="AC185" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD185" s="4">
@@ -9549,7 +9627,7 @@
         <v>694</v>
       </c>
       <c r="AC186" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD186" s="4">
@@ -9575,7 +9653,7 @@
         <v>415</v>
       </c>
       <c r="AC187" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD187" s="4">
@@ -9601,7 +9679,7 @@
         <v>523</v>
       </c>
       <c r="AC188" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD188" s="4">
@@ -9627,7 +9705,7 @@
         <v>415</v>
       </c>
       <c r="AC189" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD189" s="4">
@@ -9653,7 +9731,7 @@
         <v>415</v>
       </c>
       <c r="AC190" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD190" s="4">
@@ -9679,7 +9757,7 @@
         <v>199</v>
       </c>
       <c r="AC191" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD191" s="4">
@@ -9705,7 +9783,7 @@
         <v>523</v>
       </c>
       <c r="AC192" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD192" s="4">
@@ -9731,7 +9809,7 @@
         <v>523</v>
       </c>
       <c r="AC193" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD193" s="4">
@@ -9757,7 +9835,7 @@
         <v>523</v>
       </c>
       <c r="AC194" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD194" s="4">
@@ -9783,7 +9861,7 @@
         <v>523</v>
       </c>
       <c r="AC195" s="4">
-        <f t="shared" ref="AC195:AC258" si="4">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
+        <f t="shared" ref="AC195:AC258" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD195" s="4">
@@ -9809,7 +9887,7 @@
         <v>297</v>
       </c>
       <c r="AC196" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD196" s="4">
@@ -9835,7 +9913,7 @@
         <v>297</v>
       </c>
       <c r="AC197" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD197" s="4">
@@ -9861,7 +9939,7 @@
         <v>523</v>
       </c>
       <c r="AC198" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD198" s="4">
@@ -9887,7 +9965,7 @@
         <v>523</v>
       </c>
       <c r="AC199" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD199" s="4">
@@ -9913,7 +9991,7 @@
         <v>297</v>
       </c>
       <c r="AC200" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD200" s="4">
@@ -9939,7 +10017,7 @@
         <v>694</v>
       </c>
       <c r="AC201" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD201" s="4">
@@ -9965,7 +10043,7 @@
         <v>415</v>
       </c>
       <c r="AC202" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD202" s="4">
@@ -9991,7 +10069,7 @@
         <v>199</v>
       </c>
       <c r="AC203" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD203" s="4">
@@ -10017,7 +10095,7 @@
         <v>369</v>
       </c>
       <c r="AC204" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD204" s="4">
@@ -10043,7 +10121,7 @@
         <v>199</v>
       </c>
       <c r="AC205" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD205" s="4">
@@ -10069,7 +10147,7 @@
         <v>415</v>
       </c>
       <c r="AC206" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD206" s="4">
@@ -10095,7 +10173,7 @@
         <v>523</v>
       </c>
       <c r="AC207" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD207" s="4">
@@ -10121,7 +10199,7 @@
         <v>199</v>
       </c>
       <c r="AC208" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD208" s="4">
@@ -10147,7 +10225,7 @@
         <v>199</v>
       </c>
       <c r="AC209" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD209" s="4">
@@ -10173,7 +10251,7 @@
         <v>694</v>
       </c>
       <c r="AC210" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD210" s="4">
@@ -10199,7 +10277,7 @@
         <v>297</v>
       </c>
       <c r="AC211" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD211" s="4">
@@ -10225,7 +10303,7 @@
         <v>415</v>
       </c>
       <c r="AC212" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD212" s="4">
@@ -10251,7 +10329,7 @@
         <v>415</v>
       </c>
       <c r="AC213" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD213" s="4">
@@ -10277,7 +10355,7 @@
         <v>694</v>
       </c>
       <c r="AC214" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD214" s="4">
@@ -10303,7 +10381,7 @@
         <v>369</v>
       </c>
       <c r="AC215" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD215" s="4">
@@ -10329,7 +10407,7 @@
         <v>199</v>
       </c>
       <c r="AC216" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD216" s="4">
@@ -10355,7 +10433,7 @@
         <v>523</v>
       </c>
       <c r="AC217" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD217" s="4">
@@ -10381,7 +10459,7 @@
         <v>199</v>
       </c>
       <c r="AC218" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD218" s="4">
@@ -10407,7 +10485,7 @@
         <v>415</v>
       </c>
       <c r="AC219" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD219" s="4">
@@ -10433,7 +10511,7 @@
         <v>671</v>
       </c>
       <c r="AC220" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD220" s="4">
@@ -10459,7 +10537,7 @@
         <v>369</v>
       </c>
       <c r="AC221" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD221" s="4">
@@ -10485,7 +10563,7 @@
         <v>523</v>
       </c>
       <c r="AC222" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD222" s="4">
@@ -10511,7 +10589,7 @@
         <v>297</v>
       </c>
       <c r="AC223" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD223" s="4">
@@ -10537,7 +10615,7 @@
         <v>523</v>
       </c>
       <c r="AC224" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD224" s="4">
@@ -10563,7 +10641,7 @@
         <v>415</v>
       </c>
       <c r="AC225" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD225" s="4">
@@ -10589,7 +10667,7 @@
         <v>415</v>
       </c>
       <c r="AC226" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD226" s="4">
@@ -10615,7 +10693,7 @@
         <v>369</v>
       </c>
       <c r="AC227" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD227" s="4">
@@ -10641,7 +10719,7 @@
         <v>415</v>
       </c>
       <c r="AC228" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD228" s="4">
@@ -10667,7 +10745,7 @@
         <v>671</v>
       </c>
       <c r="AC229" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD229" s="4">
@@ -10693,7 +10771,7 @@
         <v>523</v>
       </c>
       <c r="AC230" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD230" s="4">
@@ -10719,7 +10797,7 @@
         <v>671</v>
       </c>
       <c r="AC231" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD231" s="4">
@@ -10745,7 +10823,7 @@
         <v>199</v>
       </c>
       <c r="AC232" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD232" s="4">
@@ -10771,7 +10849,7 @@
         <v>694</v>
       </c>
       <c r="AC233" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD233" s="4">
@@ -10797,7 +10875,7 @@
         <v>694</v>
       </c>
       <c r="AC234" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD234" s="4">
@@ -10823,7 +10901,7 @@
         <v>297</v>
       </c>
       <c r="AC235" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD235" s="4">
@@ -10849,7 +10927,7 @@
         <v>369</v>
       </c>
       <c r="AC236" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD236" s="4">
@@ -10875,7 +10953,7 @@
         <v>415</v>
       </c>
       <c r="AC237" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD237" s="4">
@@ -10901,7 +10979,7 @@
         <v>415</v>
       </c>
       <c r="AC238" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD238" s="4">
@@ -10927,7 +11005,7 @@
         <v>297</v>
       </c>
       <c r="AC239" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD239" s="4">
@@ -10953,7 +11031,7 @@
         <v>694</v>
       </c>
       <c r="AC240" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD240" s="4">
@@ -10979,7 +11057,7 @@
         <v>297</v>
       </c>
       <c r="AC241" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD241" s="4">
@@ -11005,7 +11083,7 @@
         <v>523</v>
       </c>
       <c r="AC242" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD242" s="4">
@@ -11031,7 +11109,7 @@
         <v>199</v>
       </c>
       <c r="AC243" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD243" s="4">
@@ -11057,7 +11135,7 @@
         <v>415</v>
       </c>
       <c r="AC244" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD244" s="4">
@@ -11083,7 +11161,7 @@
         <v>369</v>
       </c>
       <c r="AC245" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD245" s="4">
@@ -11109,7 +11187,7 @@
         <v>415</v>
       </c>
       <c r="AC246" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD246" s="4">
@@ -11135,7 +11213,7 @@
         <v>523</v>
       </c>
       <c r="AC247" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD247" s="4">
@@ -11161,7 +11239,7 @@
         <v>523</v>
       </c>
       <c r="AC248" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD248" s="4">
@@ -11187,7 +11265,7 @@
         <v>523</v>
       </c>
       <c r="AC249" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD249" s="4">
@@ -11213,7 +11291,7 @@
         <v>199</v>
       </c>
       <c r="AC250" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD250" s="4">
@@ -11239,7 +11317,7 @@
         <v>523</v>
       </c>
       <c r="AC251" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD251" s="4">
@@ -11265,7 +11343,7 @@
         <v>297</v>
       </c>
       <c r="AC252" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD252" s="4">
@@ -11291,7 +11369,7 @@
         <v>297</v>
       </c>
       <c r="AC253" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD253" s="4">
@@ -11317,7 +11395,7 @@
         <v>415</v>
       </c>
       <c r="AC254" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD254" s="4">
@@ -11343,7 +11421,7 @@
         <v>694</v>
       </c>
       <c r="AC255" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD255" s="4">
@@ -11369,7 +11447,7 @@
         <v>297</v>
       </c>
       <c r="AC256" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD256" s="4">
@@ -11395,7 +11473,7 @@
         <v>694</v>
       </c>
       <c r="AC257" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD257" s="4">
@@ -11421,7 +11499,7 @@
         <v>694</v>
       </c>
       <c r="AC258" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AD258" s="4">
@@ -11447,7 +11525,7 @@
         <v>523</v>
       </c>
       <c r="AC259" s="4">
-        <f t="shared" ref="AC259:AC266" si="5">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
+        <f t="shared" ref="AC259:AC266" si="6">--ISNUMBER(IFERROR(SEARCH($V$1,Y259,1),""))</f>
         <v>1</v>
       </c>
       <c r="AD259" s="4">
@@ -11473,7 +11551,7 @@
         <v>369</v>
       </c>
       <c r="AC260" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD260" s="4">
@@ -11499,7 +11577,7 @@
         <v>523</v>
       </c>
       <c r="AC261" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD261" s="4">
@@ -11525,7 +11603,7 @@
         <v>369</v>
       </c>
       <c r="AC262" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD262" s="4">
@@ -11551,7 +11629,7 @@
         <v>523</v>
       </c>
       <c r="AC263" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD263" s="4">
@@ -11577,7 +11655,7 @@
         <v>199</v>
       </c>
       <c r="AC264" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD264" s="4">
@@ -11603,7 +11681,7 @@
         <v>199</v>
       </c>
       <c r="AC265" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD265" s="4">
@@ -11629,7 +11707,7 @@
         <v>523</v>
       </c>
       <c r="AC266" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AD266" s="4">
@@ -11642,9 +11720,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M467PmLTPswqCbLA4zNYSYnwI27XVV66ay/29MuMi97KEfcPpv4EQ68oQYB27u9J5ZHiQLVd4AaA60P9cxocew==" saltValue="yoR7+fRtV7qhU0Ct6oTozQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P4XytkC1us2mvky51IpO/qsIT3cYtmshjpuYbiMp6uLprAlqsN75o9KDkiFGj+URnVygiT2jRw8V2FWobv+32g==" saltValue="Lb6cHw7R1QZflyVZoNFQ2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="I4 Q8:R15 J13:M19 N8:P14" name="Range1"/>
+    <protectedRange sqref="I4 Q8:R15 J13:M19 N8:P13 N14:O14" name="Range1"/>
     <protectedRange sqref="F13:I19 D13:E16 D18:E19" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="12">
@@ -11665,9 +11743,8 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:I19 D8:E8" xr:uid="{1AEA519C-D6C3-4B19-BC8C-DB1A1E5CA382}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{C90E78D1-5234-4547-8AA5-47EF92B03D04}">
-      <formula1>YEAR(TODAY())-20</formula1>
-      <formula2>YEAR(TODAY())-1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{C90E78D1-5234-4547-8AA5-47EF92B03D04}">
+      <formula1>$P$14:$P$33</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11709,50 +11786,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
@@ -11785,38 +11862,38 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="49" t="s">
         <v>880</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="49" t="s">
         <v>754</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="2:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
@@ -11825,19 +11902,19 @@
       <c r="C9" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="2:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
@@ -11848,34 +11925,34 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="49" t="s">
         <v>1024</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49" t="s">
         <v>754</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="2:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
@@ -11889,10 +11966,10 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -11906,10 +11983,10 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
@@ -11917,26 +11994,26 @@
       <c r="D15" s="41"/>
     </row>
     <row r="16" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="49" t="s">
         <v>755</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="38" t="s">
         <v>757</v>
       </c>
@@ -12054,7 +12131,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -12072,50 +12149,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
@@ -12148,28 +12225,28 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="50" t="s">
         <v>774</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>754</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="38" t="s">
         <v>854</v>
       </c>
@@ -12179,11 +12256,11 @@
       <c r="F8" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
@@ -12192,20 +12269,20 @@
       <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -12214,20 +12291,20 @@
       <c r="C10" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
@@ -12236,20 +12313,20 @@
       <c r="C11" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -12258,20 +12335,20 @@
       <c r="C12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
@@ -12280,20 +12357,20 @@
       <c r="C13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -12302,20 +12379,20 @@
       <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
@@ -12324,53 +12401,53 @@
       <c r="C15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="49" t="s">
         <v>750</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49" t="s">
         <v>754</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
@@ -12379,52 +12456,52 @@
       <c r="C19" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="59" t="s">
         <v>1026</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="49" t="s">
         <v>880</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="49" t="s">
         <v>754</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
@@ -12433,20 +12510,20 @@
       <c r="C23" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="42" t="s">
         <v>1026</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cdLGdccdCNTAEa03wU7yUpAVtPWFnawCizC0B/UVvR7ZnkKbRhZCu4r5dLeZkJGkXHhvbyDo69kpEwL5nAV/DA==" saltValue="Y7Sb/ZiNmLhFQAm5hDhwmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -12462,11 +12539,6 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D17:F18"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
@@ -12477,6 +12549,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F15">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -12521,14 +12598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="str">
+      <c r="A1" s="62" t="str">
         <f>_WDyQKfAvY3V</f>
         <v>NHWA Module 6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -14183,32 +14260,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>1023</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>1022</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="62" t="s">
         <v>1021</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="62" t="s">
         <v>1020</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="62" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
